--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwam\Documents\Python\PenantGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116811DF-65A2-4AEB-9FD6-1B189060CA5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB4907-D4F5-4010-A21F-72D35BC850E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_p" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
   <si>
     <t>球速</t>
     <rPh sb="0" eb="2">
@@ -514,6 +514,316 @@
     <t>打</t>
     <rPh sb="0" eb="1">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>試合数</t>
+    <rPh sb="0" eb="2">
+      <t>シアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打数</t>
+    <rPh sb="0" eb="2">
+      <t>ダスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打席</t>
+    <rPh sb="0" eb="2">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安打</t>
+    <rPh sb="0" eb="2">
+      <t>アンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単打</t>
+    <rPh sb="0" eb="2">
+      <t>タンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二塁打</t>
+    <rPh sb="0" eb="3">
+      <t>ニルイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三塁打</t>
+    <rPh sb="0" eb="3">
+      <t>サンルイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本塁打</t>
+    <rPh sb="0" eb="3">
+      <t>ホンルイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>四球</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死球</t>
+    <rPh sb="0" eb="2">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三振</t>
+    <rPh sb="0" eb="2">
+      <t>サンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犠飛</t>
+    <rPh sb="0" eb="2">
+      <t>ギヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗塁死</t>
+    <rPh sb="0" eb="2">
+      <t>トウルイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>併殺打</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイサツダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点圏打席</t>
+    <rPh sb="0" eb="3">
+      <t>トクテンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点圏安打</t>
+    <rPh sb="0" eb="3">
+      <t>トクテンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登板数</t>
+    <rPh sb="0" eb="2">
+      <t>トウバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先発数</t>
+    <rPh sb="0" eb="2">
+      <t>センパツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敗北</t>
+    <rPh sb="0" eb="2">
+      <t>ハイボク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イニング数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打者数</t>
+    <rPh sb="0" eb="2">
+      <t>ダシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>奪三振</t>
+    <rPh sb="0" eb="3">
+      <t>ダツサンシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与四球</t>
+    <rPh sb="0" eb="3">
+      <t>ヨシキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与死球</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被本塁打</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>ホンルイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>被安打</t>
+    <rPh sb="0" eb="3">
+      <t>ヒアンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>失点</t>
+    <rPh sb="0" eb="2">
+      <t>シッテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自責点</t>
+    <rPh sb="0" eb="2">
+      <t>ジセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HQS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点圏被安打</t>
+    <rPh sb="0" eb="3">
+      <t>トクテンケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒアンダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得点圏打者数</t>
+    <rPh sb="0" eb="3">
+      <t>トクテンケン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダシャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打点</t>
+    <rPh sb="0" eb="2">
+      <t>ダテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犠打</t>
+    <rPh sb="0" eb="2">
+      <t>ギダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完投</t>
+    <rPh sb="0" eb="2">
+      <t>カントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完封</t>
+    <rPh sb="0" eb="2">
+      <t>カンプウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>盗塁成功</t>
+    <rPh sb="0" eb="2">
+      <t>トウルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -840,13 +1150,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:38">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -898,8 +1210,71 @@
       <c r="Q1" t="s">
         <v>10</v>
       </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -926,31 +1301,31 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(3,9)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="L2" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -958,14 +1333,14 @@
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>A</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -977,7 +1352,7 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -988,19 +1363,19 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" ca="1" si="0">RANDBETWEEN(140,160)</f>
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I11" ca="1" si="1">RANDBETWEEN(30,90)</f>
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J11" ca="1" si="2">RANDBETWEEN(3,9)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1008,30 +1383,30 @@
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="M3" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>E</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1054,11 +1429,11 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
@@ -1070,34 +1445,34 @@
       </c>
       <c r="K4" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="M4" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1120,27 +1495,27 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="M5" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1148,22 +1523,22 @@
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1175,7 +1550,7 @@
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1186,31 +1561,31 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="M6" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1218,18 +1593,18 @@
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1616,7 @@
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1252,23 +1627,23 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1276,26 +1651,26 @@
       </c>
       <c r="M7" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1311,34 +1686,34 @@
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="M8" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1346,22 +1721,22 @@
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>G</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +1748,7 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1384,31 +1759,31 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="M9" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1416,18 +1791,18 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1814,7 @@
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1450,23 +1825,23 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1474,11 +1849,11 @@
       </c>
       <c r="M10" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1486,14 +1861,14 @@
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1516,15 +1891,15 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
@@ -1536,7 +1911,7 @@
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="M11" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1544,19 +1919,19 @@
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
@@ -1568,15 +1943,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0799A699-65B6-4EA5-B469-6C1CABC33170}">
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:40">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1635,16 +2010,70 @@
         <v>65</v>
       </c>
       <c r="T1" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="U1" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="V1" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +2085,7 @@
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1667,35 +2096,35 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:M11" ca="1" si="0">RANDBETWEEN(30,90)</f>
+        <v>69</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ca="1" si="0"/>
         <v>39</v>
       </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1711,7 +2140,7 @@
       </c>
       <c r="R2" t="str" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1719,18 +2148,14 @@
       </c>
       <c r="T2" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="U2" t="str" cm="1">
         <f t="array" aca="1" ref="U2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
-      </c>
-      <c r="V2" t="str" cm="1">
-        <f t="array" aca="1" ref="V2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1742,50 +2167,50 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" ca="1" si="2">RANDBETWEEN(30,90)</f>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1797,26 +2222,22 @@
       </c>
       <c r="R3" t="str" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="T3" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="U3" t="str" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>G</v>
       </c>
-      <c r="V3" t="str" cm="1">
-        <f t="array" aca="1" ref="V3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
-      </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1828,66 +2249,66 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="R4" t="str" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="T4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1895,14 +2316,10 @@
       </c>
       <c r="U4" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
-      </c>
-      <c r="V4" t="str" cm="1">
-        <f t="array" aca="1" ref="V4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1914,50 +2331,50 @@
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1969,26 +2386,22 @@
       </c>
       <c r="R5" t="str" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="T5" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="U5" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
-      </c>
-      <c r="V5" t="str" cm="1">
-        <f t="array" aca="1" ref="V5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2011,70 +2424,66 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="R6" t="str" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="T6" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="U6" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
-      </c>
-      <c r="V6" t="str" cm="1">
-        <f t="array" aca="1" ref="V6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2097,39 +2506,39 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
         <v>72</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2137,15 +2546,15 @@
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="R7" t="str" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="T7" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2155,12 +2564,8 @@
         <f t="array" aca="1" ref="U7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>D</v>
       </c>
-      <c r="V7" t="str" cm="1">
-        <f t="array" aca="1" ref="V7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
-      </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2187,47 +2592,47 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="R8" t="str" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="S8" t="str" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2235,18 +2640,14 @@
       </c>
       <c r="T8" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="U8" t="str" cm="1">
         <f t="array" aca="1" ref="U8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>B</v>
       </c>
-      <c r="V8" t="str" cm="1">
-        <f t="array" aca="1" ref="V8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
-      </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2273,43 +2674,43 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2317,22 +2718,18 @@
       </c>
       <c r="S9" t="str" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="T9" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="U9" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
-      </c>
-      <c r="V9" t="str" cm="1">
-        <f t="array" aca="1" ref="V9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2359,66 +2756,62 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
         <v>67</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="T10" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
-      </c>
-      <c r="V10" t="str" cm="1">
-        <f t="array" aca="1" ref="V10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2430,7 +2823,7 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2445,63 +2838,59 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="S11" t="str" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="T11" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="U11" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>D</v>
-      </c>
-      <c r="V11" t="str" cm="1">
-        <f t="array" aca="1" ref="V11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwam\Documents\Python\PenantGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EEB4907-D4F5-4010-A21F-72D35BC850E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275E33E-2B33-457C-9898-E8E9A81D2541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
   <si>
     <t>球速</t>
     <rPh sb="0" eb="2">
@@ -824,6 +824,118 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山崎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森田</t>
+    <rPh sb="0" eb="2">
+      <t>モリタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田</t>
+    <rPh sb="0" eb="2">
+      <t>イケダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>橋本</t>
+    <rPh sb="0" eb="2">
+      <t>ハシモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿部</t>
+    <rPh sb="0" eb="2">
+      <t>アベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石川</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山下</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中島</t>
+    <rPh sb="0" eb="2">
+      <t>ナカジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石井</t>
+    <rPh sb="0" eb="2">
+      <t>イシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前田</t>
+    <rPh sb="0" eb="2">
+      <t>マエダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡田</t>
+    <rPh sb="0" eb="2">
+      <t>オカダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長谷</t>
+    <rPh sb="0" eb="2">
+      <t>ハセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後藤</t>
+    <rPh sb="0" eb="2">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近藤</t>
+    <rPh sb="0" eb="2">
+      <t>コンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村上</t>
+    <rPh sb="0" eb="2">
+      <t>ムラカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1150,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL11"/>
+  <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:Q1"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1297,15 +1409,15 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(140,160)</f>
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(3,9)</f>
@@ -1313,31 +1425,31 @@
       </c>
       <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="L2" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -1352,7 +1464,7 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1362,48 +1474,48 @@
         <v>42</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" ca="1" si="0">RANDBETWEEN(140,160)</f>
-        <v>152</v>
+        <f t="shared" ref="G3:G14" ca="1" si="0">RANDBETWEEN(140,160)</f>
+        <v>157</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:I11" ca="1" si="1">RANDBETWEEN(30,90)</f>
-        <v>59</v>
+        <f t="shared" ref="H3:I14" ca="1" si="1">RANDBETWEEN(30,90)</f>
+        <v>57</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J11" ca="1" si="2">RANDBETWEEN(3,9)</f>
-        <v>3</v>
+        <f t="shared" ref="J3:J14" ca="1" si="2">RANDBETWEEN(3,9)</f>
+        <v>8</v>
       </c>
       <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="M3" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -1418,38 +1530,38 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K4" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="M4" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1457,11 +1569,11 @@
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1469,7 +1581,7 @@
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1495,47 +1607,47 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="M5" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1561,43 +1673,43 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="M6" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1620,30 +1732,30 @@
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1651,15 +1763,15 @@
       </c>
       <c r="M7" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1667,7 +1779,7 @@
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -1686,54 +1798,54 @@
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="M8" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1748,11 +1860,11 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
@@ -1763,27 +1875,27 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="M9" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1791,15 +1903,15 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1814,7 +1926,7 @@
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1825,47 +1937,47 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="M10" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -1880,42 +1992,42 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
         <v>右</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="M11" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1923,15 +2035,147 @@
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E12" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="M12" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="P12" t="str" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q12" t="str" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E13" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>151</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="M13" t="str" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P13" t="str" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q13" t="str" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
       </c>
     </row>
   </sheetData>
@@ -1943,11 +2187,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0799A699-65B6-4EA5-B469-6C1CABC33170}">
-  <dimension ref="A1:AN11"/>
+  <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -2096,63 +2338,63 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:M25" ca="1" si="0">RANDBETWEEN(30,90)</f>
+        <v>88</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
         <v>86</v>
       </c>
-      <c r="I2">
-        <f t="shared" ref="I2:M11" ca="1" si="0">RANDBETWEEN(30,90)</f>
-        <v>69</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="R2" t="str" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="T2" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="U2" t="str" cm="1">
         <f t="array" aca="1" ref="U2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -2167,7 +2409,7 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2177,64 +2419,64 @@
         <v>47</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ref="G3:G25" ca="1" si="1">RANDBETWEEN(1,4)</f>
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H11" ca="1" si="2">RANDBETWEEN(30,90)</f>
-        <v>66</v>
+        <f t="shared" ref="H3:H25" ca="1" si="2">RANDBETWEEN(30,90)</f>
+        <v>77</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="R3" t="str" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="T3" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="U3" t="str" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -2249,7 +2491,7 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2260,31 +2502,31 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2292,15 +2534,15 @@
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="R4" t="str" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2308,7 +2550,7 @@
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="T4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2316,7 +2558,7 @@
       </c>
       <c r="U4" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -2342,35 +2584,35 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2378,23 +2620,23 @@
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="R5" t="str" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="T5" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="U5" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2413,42 +2655,42 @@
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2460,11 +2702,11 @@
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="R6" t="str" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2472,11 +2714,11 @@
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="T6" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="U6" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2506,63 +2748,63 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="R7" t="str" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="T7" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="U7" t="str" cm="1">
         <f t="array" aca="1" ref="U7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -2577,7 +2819,7 @@
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2588,43 +2830,43 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
         <v>84</v>
       </c>
-      <c r="K8">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2632,19 +2874,19 @@
       </c>
       <c r="R8" t="str" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="S8" t="str" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="T8" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="U8" t="str" cm="1">
         <f t="array" aca="1" ref="U8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -2674,43 +2916,43 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2718,15 +2960,15 @@
       </c>
       <c r="S9" t="str" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="T9" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="U9" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2741,66 +2983,66 @@
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="T10" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2808,7 +3050,7 @@
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -2823,74 +3065,1222 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
         <v>86</v>
       </c>
-      <c r="I11">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
-      </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="S11" t="str" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="T11" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="U11" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E12" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="P12" t="str" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q12" t="str" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>D</v>
+      </c>
+      <c r="R12" t="str" cm="1">
+        <f t="array" aca="1" ref="R12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="S12" t="str" cm="1">
+        <f t="array" aca="1" ref="S12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="T12" t="str" cm="1">
+        <f t="array" aca="1" ref="T12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U12" t="str" cm="1">
+        <f t="array" aca="1" ref="U12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E13" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P13" t="str" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q13" t="str" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="R13" t="str" cm="1">
+        <f t="array" aca="1" ref="R13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="S13" t="str" cm="1">
+        <f t="array" aca="1" ref="S13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="T13" t="str" cm="1">
+        <f t="array" aca="1" ref="T13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U13" t="str" cm="1">
+        <f t="array" aca="1" ref="U13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E14" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P14" t="str" cm="1">
+        <f t="array" aca="1" ref="P14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q14" t="str" cm="1">
+        <f t="array" aca="1" ref="Q14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="R14" t="str" cm="1">
+        <f t="array" aca="1" ref="R14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S14" t="str" cm="1">
+        <f t="array" aca="1" ref="S14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="T14" t="str" cm="1">
+        <f t="array" aca="1" ref="T14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U14" t="str" cm="1">
+        <f t="array" aca="1" ref="U14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E15" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P15" t="str" cm="1">
+        <f t="array" aca="1" ref="P15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q15" t="str" cm="1">
+        <f t="array" aca="1" ref="Q15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="R15" t="str" cm="1">
+        <f t="array" aca="1" ref="R15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="S15" t="str" cm="1">
+        <f t="array" aca="1" ref="S15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="T15" t="str" cm="1">
+        <f t="array" aca="1" ref="T15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="U15" t="str" cm="1">
+        <f t="array" aca="1" ref="U15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P16" t="str" cm="1">
+        <f t="array" aca="1" ref="P16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="Q16" t="str" cm="1">
+        <f t="array" aca="1" ref="Q16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="R16" t="str" cm="1">
+        <f t="array" aca="1" ref="R16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="S16" t="str" cm="1">
+        <f t="array" aca="1" ref="S16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T16" t="str" cm="1">
+        <f t="array" aca="1" ref="T16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U16" t="str" cm="1">
+        <f t="array" aca="1" ref="U16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E17" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="P17" t="str" cm="1">
+        <f t="array" aca="1" ref="P17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q17" t="str" cm="1">
+        <f t="array" aca="1" ref="Q17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R17" t="str" cm="1">
+        <f t="array" aca="1" ref="R17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="S17" t="str" cm="1">
+        <f t="array" aca="1" ref="S17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="T17" t="str" cm="1">
+        <f t="array" aca="1" ref="T17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="U17" t="str" cm="1">
+        <f t="array" aca="1" ref="U17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E18" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="P18" t="str" cm="1">
+        <f t="array" aca="1" ref="P18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="Q18" t="str" cm="1">
+        <f t="array" aca="1" ref="Q18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="R18" t="str" cm="1">
+        <f t="array" aca="1" ref="R18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="S18" t="str" cm="1">
+        <f t="array" aca="1" ref="S18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="T18" t="str" cm="1">
+        <f t="array" aca="1" ref="T18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U18" t="str" cm="1">
+        <f t="array" aca="1" ref="U18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E19" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="O19" t="str" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P19" t="str" cm="1">
+        <f t="array" aca="1" ref="P19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q19" t="str" cm="1">
+        <f t="array" aca="1" ref="Q19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="R19" t="str" cm="1">
+        <f t="array" aca="1" ref="R19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="S19" t="str" cm="1">
+        <f t="array" aca="1" ref="S19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="T19" t="str" cm="1">
+        <f t="array" aca="1" ref="T19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="U19" t="str" cm="1">
+        <f t="array" aca="1" ref="U19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="str" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E20" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O20" t="str" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P20" t="str" cm="1">
+        <f t="array" aca="1" ref="P20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="Q20" t="str" cm="1">
+        <f t="array" aca="1" ref="Q20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="R20" t="str" cm="1">
+        <f t="array" aca="1" ref="R20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="S20" t="str" cm="1">
+        <f t="array" aca="1" ref="S20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="T20" t="str" cm="1">
+        <f t="array" aca="1" ref="T20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="U20" t="str" cm="1">
+        <f t="array" aca="1" ref="U20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="str" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E21" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N21" t="str" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="O21" t="str" cm="1">
+        <f t="array" aca="1" ref="O21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P21" t="str" cm="1">
+        <f t="array" aca="1" ref="P21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q21" t="str" cm="1">
+        <f t="array" aca="1" ref="Q21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="R21" t="str" cm="1">
+        <f t="array" aca="1" ref="R21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="S21" t="str" cm="1">
+        <f t="array" aca="1" ref="S21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T21" t="str" cm="1">
+        <f t="array" aca="1" ref="T21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U21" t="str" cm="1">
+        <f t="array" aca="1" ref="U21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" t="str" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E22" t="str" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="N22" t="str" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="O22" t="str" cm="1">
+        <f t="array" aca="1" ref="O22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="P22" t="str" cm="1">
+        <f t="array" aca="1" ref="P22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q22" t="str" cm="1">
+        <f t="array" aca="1" ref="Q22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="R22" t="str" cm="1">
+        <f t="array" aca="1" ref="R22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="S22" t="str" cm="1">
+        <f t="array" aca="1" ref="S22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="T22" t="str" cm="1">
+        <f t="array" aca="1" ref="T22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U22" t="str" cm="1">
+        <f t="array" aca="1" ref="U22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" t="str" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E23" t="str" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="N23" t="str" cm="1">
+        <f t="array" aca="1" ref="N23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="O23" t="str" cm="1">
+        <f t="array" aca="1" ref="O23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P23" t="str" cm="1">
+        <f t="array" aca="1" ref="P23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="Q23" t="str" cm="1">
+        <f t="array" aca="1" ref="Q23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="R23" t="str" cm="1">
+        <f t="array" aca="1" ref="R23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S23" t="str" cm="1">
+        <f t="array" aca="1" ref="S23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="T23" t="str" cm="1">
+        <f t="array" aca="1" ref="T23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U23" t="str" cm="1">
+        <f t="array" aca="1" ref="U23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="str" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E24" t="str" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="N24" t="str" cm="1">
+        <f t="array" aca="1" ref="N24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="O24" t="str" cm="1">
+        <f t="array" aca="1" ref="O24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="P24" t="str" cm="1">
+        <f t="array" aca="1" ref="P24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q24" t="str" cm="1">
+        <f t="array" aca="1" ref="Q24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="R24" t="str" cm="1">
+        <f t="array" aca="1" ref="R24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S24" t="str" cm="1">
+        <f t="array" aca="1" ref="S24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="T24" t="str" cm="1">
+        <f t="array" aca="1" ref="T24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="U24" t="str" cm="1">
+        <f t="array" aca="1" ref="U24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="str" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E25" t="str" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N25" t="str" cm="1">
+        <f t="array" aca="1" ref="N25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O25" t="str" cm="1">
+        <f t="array" aca="1" ref="O25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P25" t="str" cm="1">
+        <f t="array" aca="1" ref="P25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q25" t="str" cm="1">
+        <f t="array" aca="1" ref="Q25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R25" t="str" cm="1">
+        <f t="array" aca="1" ref="R25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="S25" t="str" cm="1">
+        <f t="array" aca="1" ref="S25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T25" t="str" cm="1">
+        <f t="array" aca="1" ref="T25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="U25" t="str" cm="1">
+        <f t="array" aca="1" ref="U25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwam\Documents\Python\PenantGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6275E33E-2B33-457C-9898-E8E9A81D2541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED20E48-1785-47DA-A2FD-01F57EB02109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_p" sheetId="1" r:id="rId1"/>
-    <sheet name="test_b" sheetId="4" r:id="rId2"/>
-    <sheet name="rank" sheetId="2" r:id="rId3"/>
+    <sheet name="test1_p" sheetId="1" r:id="rId1"/>
+    <sheet name="test1_b" sheetId="4" r:id="rId2"/>
+    <sheet name="test2_p" sheetId="5" r:id="rId3"/>
+    <sheet name="test2_b" sheetId="6" r:id="rId4"/>
+    <sheet name="rank" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="160">
   <si>
     <t>球速</t>
     <rPh sb="0" eb="2">
@@ -936,6 +938,248 @@
     <t>村上</t>
     <rPh sb="0" eb="2">
       <t>ムラカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠藤</t>
+    <rPh sb="0" eb="2">
+      <t>エンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青木</t>
+    <rPh sb="0" eb="2">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂本</t>
+    <rPh sb="0" eb="2">
+      <t>サカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福田</t>
+    <rPh sb="0" eb="2">
+      <t>フクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太田</t>
+    <rPh sb="0" eb="2">
+      <t>オオタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西村</t>
+    <rPh sb="0" eb="2">
+      <t>ニシムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤井</t>
+    <rPh sb="0" eb="2">
+      <t>フジイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金子</t>
+    <rPh sb="0" eb="2">
+      <t>カネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本</t>
+    <rPh sb="0" eb="2">
+      <t>オカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤原</t>
+    <rPh sb="0" eb="2">
+      <t>フジワラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原田</t>
+    <rPh sb="0" eb="2">
+      <t>ハラダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中川</t>
+    <rPh sb="0" eb="2">
+      <t>ナカガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松田</t>
+    <rPh sb="0" eb="2">
+      <t>マツダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内</t>
+    <rPh sb="0" eb="2">
+      <t>タケウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小野</t>
+    <rPh sb="0" eb="2">
+      <t>オノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田村</t>
+    <rPh sb="0" eb="2">
+      <t>タムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和だ</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上だ</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内田</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原井</t>
+    <rPh sb="0" eb="2">
+      <t>ハライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柴田</t>
+    <rPh sb="0" eb="2">
+      <t>シバタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂井</t>
+    <rPh sb="0" eb="2">
+      <t>サカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮崎</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横山</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高木</t>
+    <rPh sb="0" eb="2">
+      <t>タカギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>安藤</t>
+    <rPh sb="0" eb="2">
+      <t>アンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮本</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大野</t>
+    <rPh sb="0" eb="2">
+      <t>オオノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>尾島</t>
+    <rPh sb="0" eb="2">
+      <t>オジマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>谷口</t>
+    <rPh sb="0" eb="2">
+      <t>タニグチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1398,22 +1642,22 @@
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F2" t="s">
         <v>42</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(140,160)</f>
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(30,90)</f>
@@ -1421,35 +1665,35 @@
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(3,9)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="L2" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -1464,7 +1708,7 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1474,28 +1718,28 @@
         <v>42</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" ca="1" si="0">RANDBETWEEN(140,160)</f>
-        <v>157</v>
+        <f t="shared" ref="G3:G13" ca="1" si="0">RANDBETWEEN(140,160)</f>
+        <v>148</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:I14" ca="1" si="1">RANDBETWEEN(30,90)</f>
-        <v>57</v>
+        <f t="shared" ref="H3:I13" ca="1" si="1">RANDBETWEEN(30,90)</f>
+        <v>54</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J14" ca="1" si="2">RANDBETWEEN(3,9)</f>
+        <f t="shared" ref="J3:J13" ca="1" si="2">RANDBETWEEN(3,9)</f>
         <v>8</v>
       </c>
       <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="M3" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1503,11 +1747,11 @@
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1515,7 +1759,7 @@
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -1534,22 +1778,22 @@
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="2"/>
@@ -1561,27 +1805,27 @@
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="M4" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1596,7 +1840,7 @@
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1607,47 +1851,47 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="M5" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1662,7 +1906,7 @@
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1673,47 +1917,47 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="M6" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1739,43 +1983,43 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="M7" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1794,58 +2038,58 @@
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="M8" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -1864,22 +2108,22 @@
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
@@ -1891,27 +2135,27 @@
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="M9" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -1937,47 +2181,47 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="M10" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2003,47 +2247,47 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="M11" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2058,46 +2302,46 @@
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K12" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="M12" t="str" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2105,11 +2349,11 @@
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2135,23 +2379,23 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K13" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2159,11 +2403,11 @@
       </c>
       <c r="M13" t="str" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2171,11 +2415,11 @@
       </c>
       <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2433,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0799A699-65B6-4EA5-B469-6C1CABC33170}">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -2327,42 +2573,42 @@
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:M25" ca="1" si="0">RANDBETWEEN(30,90)</f>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2374,11 +2620,11 @@
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="R2" t="str" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2386,15 +2632,15 @@
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="T2" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="U2" t="str" cm="1">
         <f t="array" aca="1" ref="U2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -2413,54 +2659,54 @@
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H25" ca="1" si="2">RANDBETWEEN(30,90)</f>
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="R3" t="str" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2468,11 +2714,11 @@
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="T3" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="U3" t="str" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2495,22 +2741,22 @@
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
@@ -2518,35 +2764,35 @@
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="R4" t="str" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2554,11 +2800,11 @@
       </c>
       <c r="T4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="U4" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -2584,39 +2830,39 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2628,19 +2874,19 @@
       </c>
       <c r="R5" t="str" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="T5" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="U5" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -2670,31 +2916,31 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2702,15 +2948,15 @@
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="R6" t="str" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2718,11 +2964,11 @@
       </c>
       <c r="T6" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="U6" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -2752,23 +2998,23 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
@@ -2776,11 +3022,11 @@
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2788,15 +3034,15 @@
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="R7" t="str" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="T7" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2804,7 +3050,7 @@
       </c>
       <c r="U7" t="str" cm="1">
         <f t="array" aca="1" ref="U7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -2819,7 +3065,7 @@
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2830,35 +3076,35 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2866,27 +3112,27 @@
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="R8" t="str" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="S8" t="str" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="T8" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="U8" t="str" cm="1">
         <f t="array" aca="1" ref="U8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -2916,39 +3162,39 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2956,19 +3202,19 @@
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="S9" t="str" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="T9" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="U9" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2994,59 +3240,59 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="T10" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3065,11 +3311,11 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F11" t="s">
         <v>47</v>
@@ -3080,59 +3326,59 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="S11" t="str" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="T11" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="U11" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -3147,42 +3393,42 @@
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3190,11 +3436,11 @@
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3202,15 +3448,15 @@
       </c>
       <c r="R12" t="str" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="S12" t="str" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="T12" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="U12" t="str" cm="1">
         <f t="array" aca="1" ref="U12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3233,7 +3479,7 @@
       </c>
       <c r="E13" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
@@ -3244,51 +3490,51 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="R13" t="str" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="S13" t="str" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="T13" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3311,7 +3557,7 @@
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -3322,63 +3568,63 @@
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
         <v>89</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="P14" t="str" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="Q14" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="R14" t="str" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S14" t="str" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="T14" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="U14" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -3404,31 +3650,31 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3436,19 +3682,19 @@
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="P15" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="Q15" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="R15" t="str" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="S15" t="str" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3456,11 +3702,11 @@
       </c>
       <c r="T15" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="U15" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -3486,63 +3732,63 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="K16">
+      <c r="L16">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="P16" t="str" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="Q16" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="R16" t="str" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="S16" t="str" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="T16" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="U16" t="str" cm="1">
         <f t="array" aca="1" ref="U16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -3561,7 +3807,7 @@
       </c>
       <c r="E17" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
@@ -3572,59 +3818,59 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="P17" t="str" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="Q17" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="R17" t="str" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="S17" t="str" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="T17" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="U17" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -3643,70 +3889,70 @@
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N18" t="str" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="P18" t="str" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="Q18" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="R18" t="str" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="S18" t="str" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="T18" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="U18" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -3721,7 +3967,7 @@
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E19" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -3732,31 +3978,31 @@
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="N19" t="str" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3764,31 +4010,31 @@
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="P19" t="str" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="Q19" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="R19" t="str" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="S19" t="str" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="T19" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="U19" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -3807,70 +4053,70 @@
       </c>
       <c r="E20" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F20" t="s">
         <v>48</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="N20" t="str" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="P20" t="str" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="Q20" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="R20" t="str" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="S20" t="str" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="T20" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="U20" t="str" cm="1">
         <f t="array" aca="1" ref="U20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -3896,63 +4142,63 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N21" t="str" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="P21" t="str" cm="1">
         <f t="array" aca="1" ref="P21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="Q21" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="R21" t="str" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="S21" t="str" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="T21" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="U21" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -3967,50 +4213,50 @@
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E22" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F22" t="s">
         <v>50</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N22" t="str" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="P22" t="str" cm="1">
         <f t="array" aca="1" ref="P22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4018,23 +4264,23 @@
       </c>
       <c r="Q22" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="R22" t="str" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="S22" t="str" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="T22" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="U22" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -4053,18 +4299,18 @@
       </c>
       <c r="E23" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F23" t="s">
         <v>51</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
@@ -4072,47 +4318,47 @@
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="N23" t="str" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="O23" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="P23" t="str" cm="1">
         <f t="array" aca="1" ref="P23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="Q23" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="R23" t="str" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="S23" t="str" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="T23" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="U23" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4135,70 +4381,70 @@
       </c>
       <c r="E24" t="str" cm="1">
         <f t="array" aca="1" ref="E24" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F24" t="s">
         <v>43</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
         <v>54</v>
       </c>
-      <c r="I24">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
       <c r="J24">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="N24" t="str" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="P24" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="Q24" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="R24" t="str" cm="1">
         <f t="array" aca="1" ref="R24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S24" t="str" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="T24" t="str" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="U24" t="str" cm="1">
         <f t="array" aca="1" ref="U24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -4224,55 +4470,55 @@
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="N25" t="str" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="O25" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="P25" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="Q25" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="R25" t="str" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="S25" t="str" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="T25" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4280,7 +4526,7 @@
       </c>
       <c r="U25" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
     </row>
   </sheetData>
@@ -4291,6 +4537,3034 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33B8836-18A7-433D-B64B-56A00C18BC8D}">
+  <dimension ref="A1:AL13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:38">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U1" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(140,160)</f>
+        <v>145</v>
+      </c>
+      <c r="H2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>37</v>
+      </c>
+      <c r="J2">
+        <f ca="1">RANDBETWEEN(3,9)</f>
+        <v>9</v>
+      </c>
+      <c r="K2" t="str" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="L2" t="str" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="M2" t="str" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O2" t="str" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P2" t="str" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="Q2" t="str" cm="1">
+        <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E3" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" ca="1" si="0">RANDBETWEEN(140,160)</f>
+        <v>157</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:I13" ca="1" si="1">RANDBETWEEN(30,90)</f>
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" ca="1" si="2">RANDBETWEEN(3,9)</f>
+        <v>6</v>
+      </c>
+      <c r="K3" t="str" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="L3" t="str" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="M3" t="str" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="P3" t="str" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="Q3" t="str" cm="1">
+        <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K4" t="str" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="L4" t="str" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="M4" t="str" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="P4" t="str" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E5" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K5" t="str" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="L5" t="str" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="M5" t="str" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="P5" t="str" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q5" t="str" cm="1">
+        <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E6" t="str" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="L6" t="str" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="M6" t="str" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P6" t="str" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="Q6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E7" t="str" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K7" t="str" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="L7" t="str" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="M7" t="str" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P7" t="str" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q7" t="str" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E8" t="str" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="K8" t="str" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="L8" t="str" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="M8" t="str" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="P8" t="str" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q8" t="str" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E9" t="str" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K9" t="str" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="L9" t="str" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="M9" t="str" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P9" t="str" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="Q9" t="str" cm="1">
+        <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E10" t="str" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="K10" t="str" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="L10" t="str" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="M10" t="str" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="P10" t="str" cm="1">
+        <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="Q10" t="str" cm="1">
+        <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E11" t="str" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K11" t="str" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="L11" t="str" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="M11" t="str" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P11" t="str" cm="1">
+        <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q11" t="str" cm="1">
+        <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E12" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K12" t="str" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="L12" t="str" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="M12" t="str" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="P12" t="str" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q12" t="str" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E13" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K13" t="str" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="L13" t="str" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="M13" t="str" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="P13" t="str" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="Q13" t="str" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A39C145-D326-4B88-B9FB-517611EEA166}">
+  <dimension ref="A1:AN25"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:40">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="str" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>45</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:M25" ca="1" si="0">RANDBETWEEN(30,90)</f>
+        <v>57</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="O2" t="str" cm="1">
+        <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P2" t="str" cm="1">
+        <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="Q2" t="str" cm="1">
+        <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" aca="1" ref="R2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="S2" t="str" cm="1">
+        <f t="array" aca="1" ref="S2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="T2" t="str" cm="1">
+        <f t="array" aca="1" ref="T2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="U2" t="str" cm="1">
+        <f t="array" aca="1" ref="U2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E3" t="str" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G25" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H25" ca="1" si="2">RANDBETWEEN(30,90)</f>
+        <v>53</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="O3" t="str" cm="1">
+        <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="P3" t="str" cm="1">
+        <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q3" t="str" cm="1">
+        <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="R3" t="str" cm="1">
+        <f t="array" aca="1" ref="R3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S3" t="str" cm="1">
+        <f t="array" aca="1" ref="S3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="T3" t="str" cm="1">
+        <f t="array" aca="1" ref="T3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U3" t="str" cm="1">
+        <f t="array" aca="1" ref="U3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E4" t="str" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O4" t="str" cm="1">
+        <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="P4" t="str" cm="1">
+        <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="Q4" t="str" cm="1">
+        <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="R4" t="str" cm="1">
+        <f t="array" aca="1" ref="R4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="S4" t="str" cm="1">
+        <f t="array" aca="1" ref="S4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T4" t="str" cm="1">
+        <f t="array" aca="1" ref="T4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="U4" t="str" cm="1">
+        <f t="array" aca="1" ref="U4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E5" t="str" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O5" t="str" cm="1">
+        <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P5" t="str" cm="1">
+        <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="Q5" t="str" cm="1">
+        <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R5" t="str" cm="1">
+        <f t="array" aca="1" ref="R5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S5" t="str" cm="1">
+        <f t="array" aca="1" ref="S5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T5" t="str" cm="1">
+        <f t="array" aca="1" ref="T5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="U5" t="str" cm="1">
+        <f t="array" aca="1" ref="U5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E6" t="str" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O6" t="str" cm="1">
+        <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="P6" t="str" cm="1">
+        <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q6" t="str" cm="1">
+        <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R6" t="str" cm="1">
+        <f t="array" aca="1" ref="R6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="S6" t="str" cm="1">
+        <f t="array" aca="1" ref="S6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T6" t="str" cm="1">
+        <f t="array" aca="1" ref="T6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="U6" t="str" cm="1">
+        <f t="array" aca="1" ref="U6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E7" t="str" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O7" t="str" cm="1">
+        <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="P7" t="str" cm="1">
+        <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q7" t="str" cm="1">
+        <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="R7" t="str" cm="1">
+        <f t="array" aca="1" ref="R7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="S7" t="str" cm="1">
+        <f t="array" aca="1" ref="S7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="T7" t="str" cm="1">
+        <f t="array" aca="1" ref="T7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="U7" t="str" cm="1">
+        <f t="array" aca="1" ref="U7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E8" t="str" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O8" t="str" cm="1">
+        <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P8" t="str" cm="1">
+        <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q8" t="str" cm="1">
+        <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R8" t="str" cm="1">
+        <f t="array" aca="1" ref="R8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="S8" t="str" cm="1">
+        <f t="array" aca="1" ref="S8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="T8" t="str" cm="1">
+        <f t="array" aca="1" ref="T8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="U8" t="str" cm="1">
+        <f t="array" aca="1" ref="U8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E9" t="str" cm="1">
+        <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="O9" t="str" cm="1">
+        <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="P9" t="str" cm="1">
+        <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q9" t="str" cm="1">
+        <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R9" t="str" cm="1">
+        <f t="array" aca="1" ref="R9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="S9" t="str" cm="1">
+        <f t="array" aca="1" ref="S9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="T9" t="str" cm="1">
+        <f t="array" aca="1" ref="T9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U9" t="str" cm="1">
+        <f t="array" aca="1" ref="U9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E10" t="str" cm="1">
+        <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O10" t="str" cm="1">
+        <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P10" t="str" cm="1">
+        <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q10" t="str" cm="1">
+        <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R10" t="str" cm="1">
+        <f t="array" aca="1" ref="R10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="S10" t="str" cm="1">
+        <f t="array" aca="1" ref="S10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="T10" t="str" cm="1">
+        <f t="array" aca="1" ref="T10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U10" t="str" cm="1">
+        <f t="array" aca="1" ref="U10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E11" t="str" cm="1">
+        <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="O11" t="str" cm="1">
+        <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="P11" t="str" cm="1">
+        <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q11" t="str" cm="1">
+        <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="R11" t="str" cm="1">
+        <f t="array" aca="1" ref="R11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S11" t="str" cm="1">
+        <f t="array" aca="1" ref="S11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="T11" t="str" cm="1">
+        <f t="array" aca="1" ref="T11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U11" t="str" cm="1">
+        <f t="array" aca="1" ref="U11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E12" t="str" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="O12" t="str" cm="1">
+        <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="P12" t="str" cm="1">
+        <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q12" t="str" cm="1">
+        <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R12" t="str" cm="1">
+        <f t="array" aca="1" ref="R12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="S12" t="str" cm="1">
+        <f t="array" aca="1" ref="S12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="T12" t="str" cm="1">
+        <f t="array" aca="1" ref="T12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U12" t="str" cm="1">
+        <f t="array" aca="1" ref="U12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E13" t="str" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="O13" t="str" cm="1">
+        <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P13" t="str" cm="1">
+        <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="Q13" t="str" cm="1">
+        <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="R13" t="str" cm="1">
+        <f t="array" aca="1" ref="R13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="S13" t="str" cm="1">
+        <f t="array" aca="1" ref="S13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="T13" t="str" cm="1">
+        <f t="array" aca="1" ref="T13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U13" t="str" cm="1">
+        <f t="array" aca="1" ref="U13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E14" t="str" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="O14" t="str" cm="1">
+        <f t="array" aca="1" ref="O14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P14" t="str" cm="1">
+        <f t="array" aca="1" ref="P14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="Q14" t="str" cm="1">
+        <f t="array" aca="1" ref="Q14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="R14" t="str" cm="1">
+        <f t="array" aca="1" ref="R14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="S14" t="str" cm="1">
+        <f t="array" aca="1" ref="S14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="T14" t="str" cm="1">
+        <f t="array" aca="1" ref="T14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="U14" t="str" cm="1">
+        <f t="array" aca="1" ref="U14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E15" t="str" cm="1">
+        <f t="array" aca="1" ref="E15" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J15">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L15">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="O15" t="str" cm="1">
+        <f t="array" aca="1" ref="O15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="P15" t="str" cm="1">
+        <f t="array" aca="1" ref="P15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q15" t="str" cm="1">
+        <f t="array" aca="1" ref="Q15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="R15" t="str" cm="1">
+        <f t="array" aca="1" ref="R15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S15" t="str" cm="1">
+        <f t="array" aca="1" ref="S15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="T15" t="str" cm="1">
+        <f t="array" aca="1" ref="T15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="U15" t="str" cm="1">
+        <f t="array" aca="1" ref="U15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E16" t="str" cm="1">
+        <f t="array" aca="1" ref="E16" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="I16">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O16" t="str" cm="1">
+        <f t="array" aca="1" ref="O16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="P16" t="str" cm="1">
+        <f t="array" aca="1" ref="P16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q16" t="str" cm="1">
+        <f t="array" aca="1" ref="Q16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="R16" t="str" cm="1">
+        <f t="array" aca="1" ref="R16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S16" t="str" cm="1">
+        <f t="array" aca="1" ref="S16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="T16" t="str" cm="1">
+        <f t="array" aca="1" ref="T16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="U16" t="str" cm="1">
+        <f t="array" aca="1" ref="U16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E17" t="str" cm="1">
+        <f t="array" aca="1" ref="E17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="O17" t="str" cm="1">
+        <f t="array" aca="1" ref="O17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P17" t="str" cm="1">
+        <f t="array" aca="1" ref="P17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q17" t="str" cm="1">
+        <f t="array" aca="1" ref="Q17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="R17" t="str" cm="1">
+        <f t="array" aca="1" ref="R17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S17" t="str" cm="1">
+        <f t="array" aca="1" ref="S17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="T17" t="str" cm="1">
+        <f t="array" aca="1" ref="T17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="U17" t="str" cm="1">
+        <f t="array" aca="1" ref="U17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E18" t="str" cm="1">
+        <f t="array" aca="1" ref="E18" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="O18" t="str" cm="1">
+        <f t="array" aca="1" ref="O18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="P18" t="str" cm="1">
+        <f t="array" aca="1" ref="P18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="Q18" t="str" cm="1">
+        <f t="array" aca="1" ref="Q18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="R18" t="str" cm="1">
+        <f t="array" aca="1" ref="R18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="S18" t="str" cm="1">
+        <f t="array" aca="1" ref="S18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T18" t="str" cm="1">
+        <f t="array" aca="1" ref="T18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="U18" t="str" cm="1">
+        <f t="array" aca="1" ref="U18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E19" t="str" cm="1">
+        <f t="array" aca="1" ref="E19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" aca="1" ref="N19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O19" t="str" cm="1">
+        <f t="array" aca="1" ref="O19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="P19" t="str" cm="1">
+        <f t="array" aca="1" ref="P19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q19" t="str" cm="1">
+        <f t="array" aca="1" ref="Q19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="R19" t="str" cm="1">
+        <f t="array" aca="1" ref="R19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="S19" t="str" cm="1">
+        <f t="array" aca="1" ref="S19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="T19" t="str" cm="1">
+        <f t="array" aca="1" ref="T19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="U19" t="str" cm="1">
+        <f t="array" aca="1" ref="U19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="str" cm="1">
+        <f t="array" aca="1" ref="D20" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E20" t="str" cm="1">
+        <f t="array" aca="1" ref="E20" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="O20" t="str" cm="1">
+        <f t="array" aca="1" ref="O20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="P20" t="str" cm="1">
+        <f t="array" aca="1" ref="P20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="Q20" t="str" cm="1">
+        <f t="array" aca="1" ref="Q20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="R20" t="str" cm="1">
+        <f t="array" aca="1" ref="R20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="S20" t="str" cm="1">
+        <f t="array" aca="1" ref="S20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="T20" t="str" cm="1">
+        <f t="array" aca="1" ref="T20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="U20" t="str" cm="1">
+        <f t="array" aca="1" ref="U20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="str" cm="1">
+        <f t="array" aca="1" ref="D21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="E21" t="str" cm="1">
+        <f t="array" aca="1" ref="E21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="N21" t="str" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O21" t="str" cm="1">
+        <f t="array" aca="1" ref="O21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="P21" t="str" cm="1">
+        <f t="array" aca="1" ref="P21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="Q21" t="str" cm="1">
+        <f t="array" aca="1" ref="Q21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R21" t="str" cm="1">
+        <f t="array" aca="1" ref="R21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="S21" t="str" cm="1">
+        <f t="array" aca="1" ref="S21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="T21" t="str" cm="1">
+        <f t="array" aca="1" ref="T21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="U21" t="str" cm="1">
+        <f t="array" aca="1" ref="U21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" t="str" cm="1">
+        <f t="array" aca="1" ref="D22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E22" t="str" cm="1">
+        <f t="array" aca="1" ref="E22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="N22" t="str" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="O22" t="str" cm="1">
+        <f t="array" aca="1" ref="O22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P22" t="str" cm="1">
+        <f t="array" aca="1" ref="P22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="Q22" t="str" cm="1">
+        <f t="array" aca="1" ref="Q22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="R22" t="str" cm="1">
+        <f t="array" aca="1" ref="R22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="S22" t="str" cm="1">
+        <f t="array" aca="1" ref="S22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T22" t="str" cm="1">
+        <f t="array" aca="1" ref="T22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="U22" t="str" cm="1">
+        <f t="array" aca="1" ref="U22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" t="str" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E23" t="str" cm="1">
+        <f t="array" aca="1" ref="E23" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N23" t="str" cm="1">
+        <f t="array" aca="1" ref="N23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="O23" t="str" cm="1">
+        <f t="array" aca="1" ref="O23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="P23" t="str" cm="1">
+        <f t="array" aca="1" ref="P23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q23" t="str" cm="1">
+        <f t="array" aca="1" ref="Q23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>G</v>
+      </c>
+      <c r="R23" t="str" cm="1">
+        <f t="array" aca="1" ref="R23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="S23" t="str" cm="1">
+        <f t="array" aca="1" ref="S23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="T23" t="str" cm="1">
+        <f t="array" aca="1" ref="T23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="U23" t="str" cm="1">
+        <f t="array" aca="1" ref="U23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" t="str" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E24" t="str" cm="1">
+        <f t="array" aca="1" ref="E24" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="N24" t="str" cm="1">
+        <f t="array" aca="1" ref="N24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="O24" t="str" cm="1">
+        <f t="array" aca="1" ref="O24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>A</v>
+      </c>
+      <c r="P24" t="str" cm="1">
+        <f t="array" aca="1" ref="P24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="Q24" t="str" cm="1">
+        <f t="array" aca="1" ref="Q24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+      <c r="R24" t="str" cm="1">
+        <f t="array" aca="1" ref="R24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+      <c r="S24" t="str" cm="1">
+        <f t="array" aca="1" ref="S24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="T24" t="str" cm="1">
+        <f t="array" aca="1" ref="T24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="U24" t="str" cm="1">
+        <f t="array" aca="1" ref="U24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="str" cm="1">
+        <f t="array" aca="1" ref="D25" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>右</v>
+      </c>
+      <c r="E25" t="str" cm="1">
+        <f t="array" aca="1" ref="E25" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
+        <v>左</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="L25">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="M25">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="N25" t="str" cm="1">
+        <f t="array" aca="1" ref="N25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="O25" t="str" cm="1">
+        <f t="array" aca="1" ref="O25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="P25" t="str" cm="1">
+        <f t="array" aca="1" ref="P25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="Q25" t="str" cm="1">
+        <f t="array" aca="1" ref="Q25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>C</v>
+      </c>
+      <c r="R25" t="str" cm="1">
+        <f t="array" aca="1" ref="R25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="S25" t="str" cm="1">
+        <f t="array" aca="1" ref="S25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>E</v>
+      </c>
+      <c r="T25" t="str" cm="1">
+        <f t="array" aca="1" ref="T25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>F</v>
+      </c>
+      <c r="U25" t="str" cm="1">
+        <f t="array" aca="1" ref="U25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
+        <v>B</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F5D2FA-59F9-4780-B43F-8BBE4F67AFAC}">
   <dimension ref="A1:D7"/>
   <sheetViews>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuwam\Documents\Python\PenantGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED20E48-1785-47DA-A2FD-01F57EB02109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6DD33-34CF-48F7-95C1-00171CA3DED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test1_p" sheetId="1" r:id="rId1"/>
@@ -1509,7 +1509,7 @@
   <dimension ref="A1:AL13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="R2" sqref="R2:AL13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1653,47 +1653,110 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(140,160)</f>
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(3,9)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="L2" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -1708,7 +1771,7 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1719,19 +1782,19 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" ca="1" si="0">RANDBETWEEN(140,160)</f>
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I13" ca="1" si="1">RANDBETWEEN(30,90)</f>
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J13" ca="1" si="2">RANDBETWEEN(3,9)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1739,27 +1802,90 @@
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="M3" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -1774,42 +1900,42 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K4" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="M4" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1826,6 +1952,69 @@
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>F</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -1840,7 +2029,7 @@
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1851,47 +2040,110 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="M5" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -1917,27 +2169,27 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="L6" t="str" cm="1">
         <f t="array" aca="1" ref="L6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="M6" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -1945,19 +2197,82 @@
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -1972,7 +2287,7 @@
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -1983,47 +2298,110 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="M7" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -2038,7 +2416,7 @@
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2049,39 +2427,39 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="M8" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2090,6 +2468,69 @@
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>F</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2104,26 +2545,26 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F9" t="s">
         <v>52</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
@@ -2131,11 +2572,11 @@
       </c>
       <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="M9" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2147,15 +2588,78 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2170,11 +2674,11 @@
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
@@ -2185,43 +2689,106 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="M10" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2236,38 +2803,38 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F11" t="s">
         <v>52</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="M11" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2275,19 +2842,82 @@
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -2302,34 +2932,34 @@
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F12" t="s">
         <v>52</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K12" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2337,23 +2967,86 @@
       </c>
       <c r="M12" t="str" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -2379,19 +3072,19 @@
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K13" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2399,7 +3092,7 @@
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="M13" t="str" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2407,19 +3100,82 @@
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2433,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0799A699-65B6-4EA5-B469-6C1CABC33170}">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN25" sqref="V2:AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2584,63 +3340,120 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:M25" ca="1" si="0">RANDBETWEEN(30,90)</f>
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="R2" t="str" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="T2" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="U2" t="str" cm="1">
         <f t="array" aca="1" ref="U2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>B</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -2666,35 +3479,35 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H25" ca="1" si="2">RANDBETWEEN(30,90)</f>
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2702,27 +3515,84 @@
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="R3" t="str" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="T3" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="U3" t="str" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -2737,7 +3607,7 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2752,47 +3622,47 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="R4" t="str" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2800,11 +3670,68 @@
       </c>
       <c r="T4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="U4" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -2819,7 +3746,7 @@
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2830,47 +3757,47 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="R5" t="str" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2878,7 +3805,7 @@
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="T5" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2886,7 +3813,64 @@
       </c>
       <c r="U5" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -2905,46 +3889,46 @@
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -2952,23 +3936,80 @@
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="R6" t="str" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="T6" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="U6" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -2983,7 +4024,7 @@
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -2998,59 +4039,116 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="R7" t="str" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="T7" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="U7" t="str" cm="1">
         <f t="array" aca="1" ref="U7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -3080,39 +4178,39 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3124,15 +4222,72 @@
       </c>
       <c r="S8" t="str" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="T8" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="U8" t="str" cm="1">
         <f t="array" aca="1" ref="U8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -3147,46 +4302,46 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3198,23 +4353,80 @@
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="S9" t="str" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="T9" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="U9" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -3240,31 +4452,31 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3272,23 +4484,23 @@
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="T10" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3296,7 +4508,64 @@
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -3315,70 +4584,127 @@
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F11" t="s">
         <v>47</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="S11" t="str" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="T11" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="U11" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -3397,50 +4723,50 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3448,7 +4774,7 @@
       </c>
       <c r="R12" t="str" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="S12" t="str" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3456,11 +4782,68 @@
       </c>
       <c r="T12" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="U12" t="str" cm="1">
         <f t="array" aca="1" ref="U12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -3475,7 +4858,7 @@
       </c>
       <c r="D13" t="str" cm="1">
         <f t="array" aca="1" ref="D13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E13" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -3490,47 +4873,47 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="R13" t="str" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="S13" t="str" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3538,11 +4921,68 @@
       </c>
       <c r="T13" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="U13" t="str" cm="1">
         <f t="array" aca="1" ref="U13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -3561,54 +5001,54 @@
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F14" t="s">
         <v>50</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="P14" t="str" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="Q14" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="R14" t="str" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3616,15 +5056,72 @@
       </c>
       <c r="S14" t="str" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="T14" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="U14" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -3650,35 +5147,35 @@
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3686,27 +5183,84 @@
       </c>
       <c r="P15" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="Q15" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="R15" t="str" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="S15" t="str" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="T15" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="U15" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -3725,58 +5279,58 @@
       </c>
       <c r="E16" t="str" cm="1">
         <f t="array" aca="1" ref="E16" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F16" t="s">
         <v>43</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="L16">
+        <f t="shared" ca="1" si="0"/>
         <v>32</v>
       </c>
-      <c r="K16">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="L16">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="P16" t="str" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="Q16" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="R16" t="str" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="S16" t="str" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3788,10 +5342,67 @@
       </c>
       <c r="U16" t="str" cm="1">
         <f t="array" aca="1" ref="U16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -3807,42 +5418,42 @@
       </c>
       <c r="E17" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3850,7 +5461,7 @@
       </c>
       <c r="P17" t="str" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="Q17" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3858,22 +5469,79 @@
       </c>
       <c r="R17" t="str" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="S17" t="str" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="T17" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="U17" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3889,58 +5557,58 @@
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="0"/>
         <v>48</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="K18">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L18">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="M18">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
       </c>
       <c r="N18" t="str" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="P18" t="str" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="Q18" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="R18" t="str" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="S18" t="str" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -3948,14 +5616,71 @@
       </c>
       <c r="T18" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="U18" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -3967,66 +5692,66 @@
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E19" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F19" t="s">
         <v>47</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="N19" t="str" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="P19" t="str" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="Q19" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="R19" t="str" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="S19" t="str" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="T19" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4034,10 +5759,67 @@
       </c>
       <c r="U19" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -4060,31 +5842,31 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="N20" t="str" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4092,15 +5874,15 @@
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="P20" t="str" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="Q20" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="R20" t="str" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4108,18 +5890,75 @@
       </c>
       <c r="S20" t="str" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="T20" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="U20" t="str" cm="1">
         <f t="array" aca="1" ref="U20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -4131,7 +5970,7 @@
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E21" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -4142,66 +5981,123 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="N21" t="str" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="P21" t="str" cm="1">
         <f t="array" aca="1" ref="P21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="Q21" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="R21" t="str" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="S21" t="str" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="T21" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>C</v>
       </c>
       <c r="U21" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -4213,7 +6109,7 @@
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E22" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -4224,31 +6120,31 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N22" t="str" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4256,34 +6152,91 @@
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="P22" t="str" cm="1">
         <f t="array" aca="1" ref="P22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Q22" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="R22" t="str" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="S22" t="str" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="T22" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="U22" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -4306,35 +6259,35 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="0"/>
         <v>86</v>
       </c>
-      <c r="L23">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
-      </c>
       <c r="M23">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N23" t="str" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="O23" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4342,11 +6295,11 @@
       </c>
       <c r="P23" t="str" cm="1">
         <f t="array" aca="1" ref="P23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="Q23" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="R23" t="str" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4354,18 +6307,75 @@
       </c>
       <c r="S23" t="str" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="T23" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="U23" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -4388,31 +6398,31 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="N24" t="str" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4420,19 +6430,19 @@
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="P24" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="Q24" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="R24" t="str" cm="1">
         <f t="array" aca="1" ref="R24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="S24" t="str" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4444,10 +6454,67 @@
       </c>
       <c r="U24" t="str" cm="1">
         <f t="array" aca="1" ref="U24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -4463,7 +6530,7 @@
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
@@ -4474,47 +6541,47 @@
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="K25">
+        <f t="shared" ca="1" si="0"/>
         <v>75</v>
       </c>
-      <c r="I25">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="K25">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
       <c r="L25">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="N25" t="str" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="O25" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="P25" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="Q25" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="R25" t="str" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="S25" t="str" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4522,11 +6589,68 @@
       </c>
       <c r="T25" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="U25" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4540,7 +6664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33B8836-18A7-433D-B64B-56A00C18BC8D}">
   <dimension ref="A1:AL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:AL13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -4683,31 +6809,31 @@
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(140,160)</f>
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(3,9)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K2" t="str" cm="1">
         <f t="array" aca="1" ref="K2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="L2" t="str" cm="1">
         <f t="array" aca="1" ref="L2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4715,15 +6841,78 @@
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>F</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -4742,54 +6931,117 @@
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" ca="1" si="0">RANDBETWEEN(140,160)</f>
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:I13" ca="1" si="1">RANDBETWEEN(30,90)</f>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J13" ca="1" si="2">RANDBETWEEN(3,9)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K3" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="L3" t="str" cm="1">
         <f t="array" aca="1" ref="L3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="M3" t="str" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:38">
@@ -4804,7 +7056,7 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -4815,27 +7067,27 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="str" cm="1">
         <f t="array" aca="1" ref="K4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="L4" t="str" cm="1">
         <f t="array" aca="1" ref="L4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="M4" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4843,19 +7095,82 @@
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:38">
@@ -4881,47 +7196,110 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K5" t="str" cm="1">
         <f t="array" aca="1" ref="K5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="L5" t="str" cm="1">
         <f t="array" aca="1" ref="L5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="M5" t="str" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:38">
@@ -4940,26 +7318,26 @@
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F6" t="s">
         <v>42</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6" t="str" cm="1">
         <f t="array" aca="1" ref="K6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4971,7 +7349,7 @@
       </c>
       <c r="M6" t="str" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -4979,15 +7357,78 @@
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:38">
@@ -5006,26 +7447,26 @@
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F7" t="s">
         <v>42</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" t="str" cm="1">
         <f t="array" aca="1" ref="K7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -5033,27 +7474,90 @@
       </c>
       <c r="L7" t="str" cm="1">
         <f t="array" aca="1" ref="L7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="M7" t="str" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>B</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -5072,54 +7576,117 @@
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K8" t="str" cm="1">
         <f t="array" aca="1" ref="K8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="L8" t="str" cm="1">
         <f t="array" aca="1" ref="L8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="M8" t="str" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>E</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -5134,7 +7701,7 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -5145,27 +7712,27 @@
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K9" t="str" cm="1">
         <f t="array" aca="1" ref="K9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="L9" t="str" cm="1">
         <f t="array" aca="1" ref="L9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="M9" t="str" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -5177,15 +7744,78 @@
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>E</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -5204,54 +7834,117 @@
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F10" t="s">
         <v>52</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" t="str" cm="1">
         <f t="array" aca="1" ref="K10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="L10" t="str" cm="1">
         <f t="array" aca="1" ref="L10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="M10" t="str" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>C</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -5266,7 +7959,7 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -5277,15 +7970,15 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
@@ -5293,31 +7986,94 @@
       </c>
       <c r="K11" t="str" cm="1">
         <f t="array" aca="1" ref="K11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="L11" t="str" cm="1">
         <f t="array" aca="1" ref="L11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="M11" t="str" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:38">
@@ -5332,7 +8088,7 @@
       </c>
       <c r="D12" t="str" cm="1">
         <f t="array" aca="1" ref="D12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -5343,27 +8099,27 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12" t="str" cm="1">
         <f t="array" aca="1" ref="K12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="L12" t="str" cm="1">
         <f t="array" aca="1" ref="L12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="M12" t="str" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -5371,19 +8127,82 @@
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:38">
@@ -5402,54 +8221,117 @@
       </c>
       <c r="E13" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K13" t="str" cm="1">
         <f t="array" aca="1" ref="K13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="L13" t="str" cm="1">
         <f t="array" aca="1" ref="L13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="M13" t="str" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>C</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5463,7 +8345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A39C145-D326-4B88-B9FB-517611EEA166}">
   <dimension ref="A1:AN25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
@@ -5601,7 +8483,7 @@
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -5616,59 +8498,116 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:M25" ca="1" si="0">RANDBETWEEN(30,90)</f>
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="N2" t="str" cm="1">
         <f t="array" aca="1" ref="N2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="O2" t="str" cm="1">
         <f t="array" aca="1" ref="O2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="P2" t="str" cm="1">
         <f t="array" aca="1" ref="P2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="Q2" t="str" cm="1">
         <f t="array" aca="1" ref="Q2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="R2" t="str" cm="1">
         <f t="array" aca="1" ref="R2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="S2" t="str" cm="1">
         <f t="array" aca="1" ref="S2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="T2" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="U2" t="str" cm="1">
         <f t="array" aca="1" ref="U2" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -5687,70 +8626,127 @@
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F3" t="s">
         <v>47</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H25" ca="1" si="2">RANDBETWEEN(30,90)</f>
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
         <v>62</v>
       </c>
-      <c r="K3">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="0"/>
         <v>67</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" aca="1" ref="N3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="O3" t="str" cm="1">
         <f t="array" aca="1" ref="O3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="P3" t="str" cm="1">
         <f t="array" aca="1" ref="P3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="Q3" t="str" cm="1">
         <f t="array" aca="1" ref="Q3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="R3" t="str" cm="1">
         <f t="array" aca="1" ref="R3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="S3" t="str" cm="1">
         <f t="array" aca="1" ref="S3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="T3" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="U3" t="str" cm="1">
         <f t="array" aca="1" ref="U3" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>G</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -5765,7 +8761,7 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -5776,39 +8772,39 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="N4" t="str" cm="1">
         <f t="array" aca="1" ref="N4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>A</v>
       </c>
       <c r="O4" t="str" cm="1">
         <f t="array" aca="1" ref="O4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="P4" t="str" cm="1">
         <f t="array" aca="1" ref="P4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -5816,23 +8812,80 @@
       </c>
       <c r="Q4" t="str" cm="1">
         <f t="array" aca="1" ref="Q4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="R4" t="str" cm="1">
         <f t="array" aca="1" ref="R4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="S4" t="str" cm="1">
         <f t="array" aca="1" ref="S4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="T4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="U4" t="str" cm="1">
         <f t="array" aca="1" ref="U4" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:40">
@@ -5858,47 +8911,47 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="N5" t="str" cm="1">
         <f t="array" aca="1" ref="N5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="O5" t="str" cm="1">
         <f t="array" aca="1" ref="O5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="P5" t="str" cm="1">
         <f t="array" aca="1" ref="P5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="Q5" t="str" cm="1">
         <f t="array" aca="1" ref="Q5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="R5" t="str" cm="1">
         <f t="array" aca="1" ref="R5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -5906,15 +8959,72 @@
       </c>
       <c r="S5" t="str" cm="1">
         <f t="array" aca="1" ref="S5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="T5" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="U5" t="str" cm="1">
         <f t="array" aca="1" ref="U5" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:40">
@@ -5940,19 +9050,19 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
@@ -5960,23 +9070,23 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="N6" t="str" cm="1">
         <f t="array" aca="1" ref="N6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="O6" t="str" cm="1">
         <f t="array" aca="1" ref="O6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="P6" t="str" cm="1">
         <f t="array" aca="1" ref="P6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="Q6" t="str" cm="1">
         <f t="array" aca="1" ref="Q6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -5984,19 +9094,76 @@
       </c>
       <c r="R6" t="str" cm="1">
         <f t="array" aca="1" ref="R6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="S6" t="str" cm="1">
         <f t="array" aca="1" ref="S6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="T6" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="U6" t="str" cm="1">
         <f t="array" aca="1" ref="U6" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -6011,58 +9178,58 @@
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F7" t="s">
         <v>51</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="0"/>
         <v>51</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L7">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
       </c>
       <c r="N7" t="str" cm="1">
         <f t="array" aca="1" ref="N7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="O7" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="P7" t="str" cm="1">
         <f t="array" aca="1" ref="P7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="Q7" t="str" cm="1">
         <f t="array" aca="1" ref="Q7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="R7" t="str" cm="1">
         <f t="array" aca="1" ref="R7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6070,15 +9237,72 @@
       </c>
       <c r="S7" t="str" cm="1">
         <f t="array" aca="1" ref="S7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="T7" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="U7" t="str" cm="1">
         <f t="array" aca="1" ref="U7" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>B</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -6093,42 +9317,42 @@
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F8" t="s">
         <v>43</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="N8" t="str" cm="1">
         <f t="array" aca="1" ref="N8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6136,31 +9360,88 @@
       </c>
       <c r="O8" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="P8" t="str" cm="1">
         <f t="array" aca="1" ref="P8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="Q8" t="str" cm="1">
         <f t="array" aca="1" ref="Q8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="R8" t="str" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="S8" t="str" cm="1">
         <f t="array" aca="1" ref="S8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="T8" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="U8" t="str" cm="1">
         <f t="array" aca="1" ref="U8" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -6175,11 +9456,11 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F9" t="s">
         <v>53</v>
@@ -6190,51 +9471,51 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="N9" t="str" cm="1">
         <f t="array" aca="1" ref="N9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="O9" t="str" cm="1">
         <f t="array" aca="1" ref="O9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="P9" t="str" cm="1">
         <f t="array" aca="1" ref="P9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="Q9" t="str" cm="1">
         <f t="array" aca="1" ref="Q9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="S9" t="str" cm="1">
         <f t="array" aca="1" ref="S9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="T9" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6242,7 +9523,64 @@
       </c>
       <c r="U9" t="str" cm="1">
         <f t="array" aca="1" ref="U9" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -6261,50 +9599,50 @@
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F10" t="s">
         <v>46</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="N10" t="str" cm="1">
         <f t="array" aca="1" ref="N10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="O10" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="P10" t="str" cm="1">
         <f t="array" aca="1" ref="P10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="Q10" t="str" cm="1">
         <f t="array" aca="1" ref="Q10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6312,19 +9650,76 @@
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="S10" t="str" cm="1">
         <f t="array" aca="1" ref="S10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="T10" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="U10" t="str" cm="1">
         <f t="array" aca="1" ref="U10" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -6339,54 +9734,54 @@
       </c>
       <c r="D11" t="str" cm="1">
         <f t="array" aca="1" ref="D11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E11" t="str" cm="1">
         <f t="array" aca="1" ref="E11" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F11" t="s">
         <v>47</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="0"/>
         <v>78</v>
-      </c>
-      <c r="K11">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
       </c>
       <c r="N11" t="str" cm="1">
         <f t="array" aca="1" ref="N11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="O11" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="P11" t="str" cm="1">
         <f t="array" aca="1" ref="P11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>C</v>
       </c>
       <c r="Q11" t="str" cm="1">
         <f t="array" aca="1" ref="Q11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6394,7 +9789,7 @@
       </c>
       <c r="R11" t="str" cm="1">
         <f t="array" aca="1" ref="R11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S11" t="str" cm="1">
         <f t="array" aca="1" ref="S11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6407,6 +9802,63 @@
       <c r="U11" t="str" cm="1">
         <f t="array" aca="1" ref="U11" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>G</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -6425,70 +9877,127 @@
       </c>
       <c r="E12" t="str" cm="1">
         <f t="array" aca="1" ref="E12" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="N12" t="str" cm="1">
         <f t="array" aca="1" ref="N12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="O12" t="str" cm="1">
         <f t="array" aca="1" ref="O12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>D</v>
       </c>
       <c r="P12" t="str" cm="1">
         <f t="array" aca="1" ref="P12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="Q12" t="str" cm="1">
         <f t="array" aca="1" ref="Q12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="R12" t="str" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="S12" t="str" cm="1">
         <f t="array" aca="1" ref="S12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="T12" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="U12" t="str" cm="1">
         <f t="array" aca="1" ref="U12" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
@@ -6507,70 +10016,127 @@
       </c>
       <c r="E13" t="str" cm="1">
         <f t="array" aca="1" ref="E13" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N13" t="str" cm="1">
         <f t="array" aca="1" ref="N13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="O13" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="P13" t="str" cm="1">
         <f t="array" aca="1" ref="P13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="Q13" t="str" cm="1">
         <f t="array" aca="1" ref="Q13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="R13" t="str" cm="1">
         <f t="array" aca="1" ref="R13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="S13" t="str" cm="1">
         <f t="array" aca="1" ref="S13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="T13" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="U13" t="str" cm="1">
         <f t="array" aca="1" ref="U13" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
@@ -6585,7 +10151,7 @@
       </c>
       <c r="D14" t="str" cm="1">
         <f t="array" aca="1" ref="D14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E14" t="str" cm="1">
         <f t="array" aca="1" ref="E14" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -6600,59 +10166,116 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="0"/>
         <v>86</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="K14">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="L14">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="M14">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
       </c>
       <c r="N14" t="str" cm="1">
         <f t="array" aca="1" ref="N14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="O14" t="str" cm="1">
         <f t="array" aca="1" ref="O14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="P14" t="str" cm="1">
         <f t="array" aca="1" ref="P14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="Q14" t="str" cm="1">
         <f t="array" aca="1" ref="Q14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
       <c r="R14" t="str" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
       </c>
       <c r="S14" t="str" cm="1">
         <f t="array" aca="1" ref="S14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>A</v>
       </c>
       <c r="T14" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="U14" t="str" cm="1">
         <f t="array" aca="1" ref="U14" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:40">
@@ -6667,11 +10290,11 @@
       </c>
       <c r="D15" t="str" cm="1">
         <f t="array" aca="1" ref="D15" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E15" t="str" cm="1">
         <f t="array" aca="1" ref="E15" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F15" t="s">
         <v>51</v>
@@ -6682,7 +10305,7 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
@@ -6690,35 +10313,35 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N15" t="str" cm="1">
         <f t="array" aca="1" ref="N15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="O15" t="str" cm="1">
         <f t="array" aca="1" ref="O15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>A</v>
       </c>
       <c r="P15" t="str" cm="1">
         <f t="array" aca="1" ref="P15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="Q15" t="str" cm="1">
         <f t="array" aca="1" ref="Q15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="R15" t="str" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6726,15 +10349,72 @@
       </c>
       <c r="S15" t="str" cm="1">
         <f t="array" aca="1" ref="S15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="T15" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>E</v>
       </c>
       <c r="U15" t="str" cm="1">
         <f t="array" aca="1" ref="U15" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:40">
@@ -6764,62 +10444,119 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="N16" t="str" cm="1">
         <f t="array" aca="1" ref="N16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="O16" t="str" cm="1">
         <f t="array" aca="1" ref="O16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="P16" t="str" cm="1">
         <f t="array" aca="1" ref="P16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="Q16" t="str" cm="1">
         <f t="array" aca="1" ref="Q16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="R16" t="str" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="S16" t="str" cm="1">
         <f t="array" aca="1" ref="S16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>B</v>
       </c>
       <c r="T16" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="U16" t="str" cm="1">
         <f t="array" aca="1" ref="U16" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
         <v>C</v>
       </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:40">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -6831,62 +10568,62 @@
       </c>
       <c r="D17" t="str" cm="1">
         <f t="array" aca="1" ref="D17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E17" t="str" cm="1">
         <f t="array" aca="1" ref="E17" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F17" t="s">
         <v>53</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="N17" t="str" cm="1">
         <f t="array" aca="1" ref="N17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="O17" t="str" cm="1">
         <f t="array" aca="1" ref="O17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="P17" t="str" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="Q17" t="str" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="R17" t="str" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="S17" t="str" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6894,14 +10631,71 @@
       </c>
       <c r="T17" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="U17" t="str" cm="1">
         <f t="array" aca="1" ref="U17" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:40">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -6917,46 +10711,46 @@
       </c>
       <c r="E18" t="str" cm="1">
         <f t="array" aca="1" ref="E18" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F18" t="s">
         <v>46</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="N18" t="str" cm="1">
         <f t="array" aca="1" ref="N18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
       <c r="O18" t="str" cm="1">
         <f t="array" aca="1" ref="O18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="P18" t="str" cm="1">
         <f t="array" aca="1" ref="P18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6964,11 +10758,11 @@
       </c>
       <c r="Q18" t="str" cm="1">
         <f t="array" aca="1" ref="Q18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="R18" t="str" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="S18" t="str" cm="1">
         <f t="array" aca="1" ref="S18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -6980,10 +10774,67 @@
       </c>
       <c r="U18" t="str" cm="1">
         <f t="array" aca="1" ref="U18" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:40">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -6995,7 +10846,7 @@
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" aca="1" ref="D19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E19" t="str" cm="1">
         <f t="array" aca="1" ref="E19" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -7010,31 +10861,31 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N19" t="str" cm="1">
         <f t="array" aca="1" ref="N19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>F</v>
       </c>
       <c r="O19" t="str" cm="1">
         <f t="array" aca="1" ref="O19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -7042,30 +10893,87 @@
       </c>
       <c r="P19" t="str" cm="1">
         <f t="array" aca="1" ref="P19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="Q19" t="str" cm="1">
         <f t="array" aca="1" ref="Q19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="R19" t="str" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="S19" t="str" cm="1">
         <f t="array" aca="1" ref="S19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="T19" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>B</v>
       </c>
       <c r="U19" t="str" cm="1">
         <f t="array" aca="1" ref="U19" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:40">
       <c r="A20" t="s">
         <v>125</v>
       </c>
@@ -7077,7 +10985,7 @@
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E20" t="str" cm="1">
         <f t="array" aca="1" ref="E20" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -7092,39 +11000,39 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N20" t="str" cm="1">
         <f t="array" aca="1" ref="N20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="O20" t="str" cm="1">
         <f t="array" aca="1" ref="O20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>E</v>
       </c>
       <c r="P20" t="str" cm="1">
         <f t="array" aca="1" ref="P20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>C</v>
       </c>
       <c r="Q20" t="str" cm="1">
         <f t="array" aca="1" ref="Q20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -7132,22 +11040,79 @@
       </c>
       <c r="R20" t="str" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
       </c>
       <c r="S20" t="str" cm="1">
         <f t="array" aca="1" ref="S20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
       <c r="T20" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="U20" t="str" cm="1">
         <f t="array" aca="1" ref="U20" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>C</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:40">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -7159,11 +11124,11 @@
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="E21" t="str" cm="1">
         <f t="array" aca="1" ref="E21" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F21" t="s">
         <v>49</v>
@@ -7174,19 +11139,19 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="0"/>
@@ -7194,42 +11159,99 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="N21" t="str" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>G</v>
       </c>
       <c r="O21" t="str" cm="1">
         <f t="array" aca="1" ref="O21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>D</v>
       </c>
       <c r="P21" t="str" cm="1">
         <f t="array" aca="1" ref="P21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="Q21" t="str" cm="1">
         <f t="array" aca="1" ref="Q21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
       </c>
       <c r="R21" t="str" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="S21" t="str" cm="1">
         <f t="array" aca="1" ref="S21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="T21" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>F</v>
       </c>
       <c r="U21" t="str" cm="1">
         <f t="array" aca="1" ref="U21" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:40">
       <c r="A22" t="s">
         <v>125</v>
       </c>
@@ -7245,58 +11267,58 @@
       </c>
       <c r="E22" t="str" cm="1">
         <f t="array" aca="1" ref="E22" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="F22" t="s">
         <v>50</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N22" t="str" cm="1">
         <f t="array" aca="1" ref="N22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>D</v>
       </c>
       <c r="O22" t="str" cm="1">
         <f t="array" aca="1" ref="O22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="P22" t="str" cm="1">
         <f t="array" aca="1" ref="P22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="Q22" t="str" cm="1">
         <f t="array" aca="1" ref="Q22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="R22" t="str" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>D</v>
       </c>
       <c r="S22" t="str" cm="1">
         <f t="array" aca="1" ref="S22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -7304,14 +11326,71 @@
       </c>
       <c r="T22" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>E</v>
       </c>
       <c r="U22" t="str" cm="1">
         <f t="array" aca="1" ref="U22" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>D</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:40">
       <c r="A23" t="s">
         <v>125</v>
       </c>
@@ -7323,7 +11402,7 @@
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E23" t="str" cm="1">
         <f t="array" aca="1" ref="E23" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
@@ -7334,43 +11413,43 @@
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N23" t="str" cm="1">
         <f t="array" aca="1" ref="N23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>G</v>
+        <v>E</v>
       </c>
       <c r="O23" t="str" cm="1">
         <f t="array" aca="1" ref="O23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>G</v>
       </c>
       <c r="P23" t="str" cm="1">
         <f t="array" aca="1" ref="P23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="Q23" t="str" cm="1">
         <f t="array" aca="1" ref="Q23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -7378,22 +11457,79 @@
       </c>
       <c r="R23" t="str" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>B</v>
       </c>
       <c r="S23" t="str" cm="1">
         <f t="array" aca="1" ref="S23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>F</v>
       </c>
       <c r="T23" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="U23" t="str" cm="1">
         <f t="array" aca="1" ref="U23" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:40">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -7416,31 +11552,31 @@
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N24" t="str" cm="1">
         <f t="array" aca="1" ref="N24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
@@ -7448,34 +11584,91 @@
       </c>
       <c r="O24" t="str" cm="1">
         <f t="array" aca="1" ref="O24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>A</v>
+        <v>G</v>
       </c>
       <c r="P24" t="str" cm="1">
         <f t="array" aca="1" ref="P24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="Q24" t="str" cm="1">
         <f t="array" aca="1" ref="Q24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="R24" t="str" cm="1">
         <f t="array" aca="1" ref="R24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>G</v>
       </c>
       <c r="S24" t="str" cm="1">
         <f t="array" aca="1" ref="S24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>E</v>
       </c>
       <c r="T24" t="str" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>D</v>
       </c>
       <c r="U24" t="str" cm="1">
         <f t="array" aca="1" ref="U24" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>D</v>
+        <v>G</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:40">
       <c r="A25" t="s">
         <v>125</v>
       </c>
@@ -7487,74 +11680,131 @@
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>右</v>
+        <v>左</v>
       </c>
       <c r="E25" t="str" cm="1">
         <f t="array" aca="1" ref="E25" ca="1">INDEX(rank!$A$1:$B$2,RANDBETWEEN(1,2),2)</f>
-        <v>左</v>
+        <v>右</v>
       </c>
       <c r="F25" t="s">
         <v>53</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="N25" t="str" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="O25" t="str" cm="1">
         <f t="array" aca="1" ref="O25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>F</v>
       </c>
       <c r="P25" t="str" cm="1">
         <f t="array" aca="1" ref="P25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>A</v>
       </c>
       <c r="Q25" t="str" cm="1">
         <f t="array" aca="1" ref="Q25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
       <c r="R25" t="str" cm="1">
         <f t="array" aca="1" ref="R25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="S25" t="str" cm="1">
         <f t="array" aca="1" ref="S25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>E</v>
+        <v>G</v>
       </c>
       <c r="T25" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>F</v>
+        <v>E</v>
       </c>
       <c r="U25" t="str" cm="1">
         <f t="array" aca="1" ref="U25" ca="1">INDEX(rank!$C$1:$D$7,RANDBETWEEN(1,7),2)</f>
-        <v>B</v>
+        <v>A</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>左</t>
+          <t>右</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>得点圏打席</t>
+          <t>得点圏打数</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -2624,37 +2624,37 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>874</v>
+        <v>696</v>
       </c>
       <c r="X2" t="n">
-        <v>817</v>
+        <v>642</v>
       </c>
       <c r="Y2" t="n">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="Z2" t="n">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="AA2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="AE2" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="AN2" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -2772,37 +2772,37 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>852</v>
+        <v>672</v>
       </c>
       <c r="X3" t="n">
-        <v>852</v>
+        <v>665</v>
       </c>
       <c r="Y3" t="n">
-        <v>852</v>
+        <v>194</v>
       </c>
       <c r="Z3" t="n">
-        <v>852</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -2820,10 +2820,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="AN3" t="n">
-        <v>135</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -2920,38 +2920,38 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>852</v>
+        <v>659</v>
       </c>
       <c r="X4" t="n">
-        <v>744</v>
+        <v>591</v>
       </c>
       <c r="Y4" t="n">
-        <v>223</v>
+        <v>171</v>
       </c>
       <c r="Z4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>62</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="n">
         <v>86</v>
       </c>
-      <c r="AA4" t="n">
-        <v>71</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>54</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>236</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>105</v>
-      </c>
       <c r="AH4" t="n">
         <v>0</v>
       </c>
@@ -2968,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>312</v>
+        <v>141</v>
       </c>
       <c r="AN4" t="n">
-        <v>99</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -3068,37 +3068,37 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>840</v>
+        <v>639</v>
       </c>
       <c r="X5" t="n">
-        <v>767</v>
+        <v>583</v>
       </c>
       <c r="Y5" t="n">
-        <v>255</v>
+        <v>157</v>
       </c>
       <c r="Z5" t="n">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AF5" t="n">
         <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>369</v>
+        <v>151</v>
       </c>
       <c r="AN5" t="n">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -3216,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>815</v>
+        <v>622</v>
       </c>
       <c r="X6" t="n">
-        <v>815</v>
+        <v>557</v>
       </c>
       <c r="Y6" t="n">
-        <v>815</v>
+        <v>147</v>
       </c>
       <c r="Z6" t="n">
-        <v>815</v>
+        <v>97</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AD6" t="n">
-        <v>227</v>
+        <v>66</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3264,10 +3264,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>378</v>
+        <v>135</v>
       </c>
       <c r="AN6" t="n">
-        <v>378</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -3364,37 +3364,37 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>772</v>
+        <v>583</v>
       </c>
       <c r="X7" t="n">
-        <v>701</v>
+        <v>519</v>
       </c>
       <c r="Y7" t="n">
-        <v>226</v>
+        <v>167</v>
       </c>
       <c r="Z7" t="n">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="AE7" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -3412,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>305</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -3512,37 +3512,37 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>797</v>
+        <v>602</v>
       </c>
       <c r="X8" t="n">
-        <v>770</v>
+        <v>581</v>
       </c>
       <c r="Y8" t="n">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="Z8" t="n">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="AA8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE8" t="n">
         <v>16</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AF8" t="n">
         <v>5</v>
       </c>
-      <c r="AC8" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>111</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4</v>
-      </c>
       <c r="AG8" t="n">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>355</v>
+        <v>113</v>
       </c>
       <c r="AN8" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -3602,7 +3602,7 @@
         <v>39</v>
       </c>
       <c r="I9" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J9" t="n">
         <v>65</v>
@@ -3660,37 +3660,37 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>815</v>
+        <v>615</v>
       </c>
       <c r="X9" t="n">
-        <v>784</v>
+        <v>591</v>
       </c>
       <c r="Y9" t="n">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="Z9" t="n">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD9" t="n">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="AE9" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>433</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -3747,10 +3747,10 @@
         <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J10" t="n">
         <v>31</v>
@@ -3801,44 +3801,44 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>756</v>
+        <v>566</v>
       </c>
       <c r="X10" t="n">
-        <v>680</v>
+        <v>525</v>
       </c>
       <c r="Y10" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AD10" t="n">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="AE10" t="n">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="n">
         <v>4</v>
       </c>
       <c r="AG10" t="n">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>左</t>
+          <t>右</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>得点圏打席</t>
+          <t>得点圏打数</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -8246,14 +8246,14 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>F</t>
@@ -8288,37 +8288,37 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>804</v>
+        <v>721</v>
       </c>
       <c r="X2" t="n">
-        <v>741</v>
+        <v>650</v>
       </c>
       <c r="Y2" t="n">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Z2" t="n">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="AA2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AD2" t="n">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="AF2" t="n">
         <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -8336,10 +8336,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="AN2" t="n">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -8436,37 +8436,37 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>785</v>
+        <v>710</v>
       </c>
       <c r="X3" t="n">
-        <v>734</v>
+        <v>639</v>
       </c>
       <c r="Y3" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Z3" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="AE3" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -8484,10 +8484,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>263</v>
+        <v>132</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -8584,37 +8584,37 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>766</v>
+        <v>689</v>
       </c>
       <c r="X4" t="n">
-        <v>672</v>
+        <v>610</v>
       </c>
       <c r="Y4" t="n">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="Z4" t="n">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="AA4" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD4" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="AE4" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -8632,10 +8632,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="AN4" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -8732,37 +8732,37 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>748</v>
+        <v>672</v>
       </c>
       <c r="X5" t="n">
-        <v>662</v>
+        <v>587</v>
       </c>
       <c r="Y5" t="n">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="Z5" t="n">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="n">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="AN5" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -8880,37 +8880,37 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>737</v>
+        <v>655</v>
       </c>
       <c r="X6" t="n">
-        <v>649</v>
+        <v>588</v>
       </c>
       <c r="Y6" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="Z6" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD6" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AE6" t="n">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="AF6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -8928,10 +8928,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="AN6" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -9028,37 +9028,37 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>682</v>
+        <v>610</v>
       </c>
       <c r="X7" t="n">
-        <v>682</v>
+        <v>543</v>
       </c>
       <c r="Y7" t="n">
-        <v>682</v>
+        <v>124</v>
       </c>
       <c r="Z7" t="n">
-        <v>682</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AD7" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -9076,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="AN7" t="n">
-        <v>163</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -9176,38 +9176,38 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>705</v>
+        <v>633</v>
       </c>
       <c r="X8" t="n">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="Y8" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="Z8" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AD8" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="AE8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG8" t="n">
         <v>84</v>
       </c>
-      <c r="AF8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>101</v>
-      </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
@@ -9224,10 +9224,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="AN8" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -9324,37 +9324,37 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>726</v>
+        <v>650</v>
       </c>
       <c r="X9" t="n">
-        <v>664</v>
+        <v>606</v>
       </c>
       <c r="Y9" t="n">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="Z9" t="n">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="AA9" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AD9" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="AE9" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="AF9" t="n">
         <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -9372,10 +9372,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>213</v>
+        <v>174</v>
       </c>
       <c r="AN9" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -9472,37 +9472,37 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>682</v>
+        <v>592</v>
       </c>
       <c r="X10" t="n">
-        <v>633</v>
+        <v>545</v>
       </c>
       <c r="Y10" t="n">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="Z10" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>2</v>
       </c>
       <c r="AC10" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AD10" t="n">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="AE10" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AG10" t="n">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -9520,10 +9520,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>296</v>
+        <v>114</v>
       </c>
       <c r="AN10" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">

--- a/test.xlsx
+++ b/test.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>得点圏打者数</t>
+          <t>得点圏被打数</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -733,28 +733,28 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -2320,7 +2320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2529,6 +2529,16 @@
           <t>得点圏安打</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 40</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 41</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2624,37 +2634,37 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>696</v>
+        <v>46</v>
       </c>
       <c r="X2" t="n">
-        <v>642</v>
+        <v>44</v>
       </c>
       <c r="Y2" t="n">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>3</v>
       </c>
-      <c r="AC2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>32</v>
-      </c>
       <c r="AE2" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -2672,10 +2682,16 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2772,37 +2788,37 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>672</v>
+        <v>46</v>
       </c>
       <c r="X3" t="n">
-        <v>665</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="n">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -2820,10 +2836,16 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="AN3" t="n">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2920,37 +2942,37 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>659</v>
+        <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>591</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="n">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="AD4" t="n">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="AE4" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AF4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -2968,10 +2990,16 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="AN4" t="n">
-        <v>47</v>
+        <v>1</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3068,37 +3096,37 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>639</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
-        <v>583</v>
+        <v>44</v>
       </c>
       <c r="Y5" t="n">
-        <v>157</v>
+        <v>7</v>
       </c>
       <c r="Z5" t="n">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -3116,10 +3144,16 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="AN5" t="n">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3216,38 +3250,38 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>622</v>
+        <v>44</v>
       </c>
       <c r="X6" t="n">
-        <v>557</v>
+        <v>41</v>
       </c>
       <c r="Y6" t="n">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
         <v>4</v>
       </c>
-      <c r="AC6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>66</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>81</v>
-      </c>
       <c r="AH6" t="n">
         <v>0</v>
       </c>
@@ -3264,10 +3298,16 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3364,37 +3404,37 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>583</v>
+        <v>40</v>
       </c>
       <c r="X7" t="n">
-        <v>519</v>
+        <v>33</v>
       </c>
       <c r="Y7" t="n">
-        <v>167</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -3412,10 +3452,16 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3512,37 +3558,37 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>602</v>
+        <v>41</v>
       </c>
       <c r="X8" t="n">
-        <v>581</v>
+        <v>39</v>
       </c>
       <c r="Y8" t="n">
-        <v>171</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
         <v>1</v>
       </c>
-      <c r="AD8" t="n">
-        <v>30</v>
-      </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -3560,10 +3606,16 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3660,37 +3712,37 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>615</v>
+        <v>43</v>
       </c>
       <c r="X9" t="n">
-        <v>591</v>
+        <v>42</v>
       </c>
       <c r="Y9" t="n">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="Z9" t="n">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
         <v>2</v>
       </c>
-      <c r="AC9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>31</v>
-      </c>
       <c r="AE9" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -3708,10 +3760,16 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="AN9" t="n">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3808,38 +3866,38 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>566</v>
+        <v>37</v>
       </c>
       <c r="X10" t="n">
-        <v>525</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="AF10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG10" t="n">
         <v>4</v>
       </c>
-      <c r="AG10" t="n">
-        <v>89</v>
-      </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
@@ -3856,10 +3914,16 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -4009,6 +4073,12 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -4157,6 +4227,12 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -4305,6 +4381,12 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4453,6 +4535,12 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4601,6 +4689,12 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4749,6 +4843,12 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4897,6 +4997,12 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5045,6 +5151,12 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5193,6 +5305,12 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5341,6 +5459,12 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5489,6 +5613,12 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5637,6 +5767,12 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5785,6 +5921,12 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5933,6 +6075,12 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6079,6 +6227,12 @@
         <v>0</v>
       </c>
       <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6284,7 +6438,7 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>得点圏打者数</t>
+          <t>得点圏被打数</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
@@ -6388,7 +6542,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -6397,28 +6551,28 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
@@ -6427,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -7984,7 +8138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN25"/>
+  <dimension ref="A1:AP25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8193,6 +8347,16 @@
           <t>得点圏安打</t>
         </is>
       </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 40</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 41</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -8288,37 +8452,37 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>721</v>
+        <v>52</v>
       </c>
       <c r="X2" t="n">
-        <v>650</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="n">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="n">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="n">
         <v>3</v>
       </c>
-      <c r="AC2" t="n">
-        <v>27</v>
-      </c>
       <c r="AD2" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -8336,10 +8500,16 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -8436,37 +8606,37 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>710</v>
+        <v>50</v>
       </c>
       <c r="X3" t="n">
-        <v>639</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="n">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="AB3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -8484,10 +8654,16 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="AN3" t="n">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -8584,37 +8760,37 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>689</v>
+        <v>48</v>
       </c>
       <c r="X4" t="n">
-        <v>610</v>
+        <v>39</v>
       </c>
       <c r="Y4" t="n">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AB4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="n">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -8632,10 +8808,16 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8671,10 +8853,10 @@
         <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I5" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J5" t="n">
         <v>40</v>
@@ -8732,37 +8914,37 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>672</v>
+        <v>48</v>
       </c>
       <c r="X5" t="n">
-        <v>587</v>
+        <v>43</v>
       </c>
       <c r="Y5" t="n">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -8780,10 +8962,16 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>8</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -8880,37 +9068,37 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>655</v>
+        <v>48</v>
       </c>
       <c r="X6" t="n">
-        <v>588</v>
+        <v>44</v>
       </c>
       <c r="Y6" t="n">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="AA6" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
         <v>5</v>
       </c>
-      <c r="AC6" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>110</v>
-      </c>
       <c r="AE6" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -8928,10 +9116,16 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>189</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>61</v>
+        <v>1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -9028,37 +9222,37 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>610</v>
+        <v>43</v>
       </c>
       <c r="X7" t="n">
-        <v>543</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="n">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD7" t="n">
         <v>3</v>
       </c>
-      <c r="AC7" t="n">
-        <v>39</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>105</v>
-      </c>
       <c r="AE7" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -9076,10 +9270,16 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -9176,37 +9376,37 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>633</v>
+        <v>46</v>
       </c>
       <c r="X8" t="n">
-        <v>569</v>
+        <v>43</v>
       </c>
       <c r="Y8" t="n">
-        <v>132</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AD8" t="n">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -9224,10 +9424,16 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -9324,58 +9530,64 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>650</v>
+        <v>47</v>
       </c>
       <c r="X9" t="n">
-        <v>606</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="n">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
         <v>17</v>
       </c>
-      <c r="AD9" t="n">
-        <v>62</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>76</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>174</v>
-      </c>
       <c r="AN9" t="n">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -9472,37 +9684,37 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>592</v>
+        <v>43</v>
       </c>
       <c r="X10" t="n">
-        <v>545</v>
+        <v>40</v>
       </c>
       <c r="Y10" t="n">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
         <v>2</v>
       </c>
-      <c r="AC10" t="n">
-        <v>18</v>
-      </c>
       <c r="AD10" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -9520,10 +9732,16 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>2</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -9673,6 +9891,12 @@
       <c r="AN11" t="n">
         <v>0</v>
       </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9821,6 +10045,12 @@
       <c r="AN12" t="n">
         <v>0</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -9969,6 +10199,12 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -10117,6 +10353,12 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -10265,6 +10507,12 @@
       <c r="AN15" t="n">
         <v>0</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -10413,6 +10661,12 @@
       <c r="AN16" t="n">
         <v>0</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -10561,6 +10815,12 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -10709,6 +10969,12 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -10857,6 +11123,12 @@
       <c r="AN19" t="n">
         <v>0</v>
       </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -11005,6 +11277,12 @@
       <c r="AN20" t="n">
         <v>0</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -11153,6 +11431,12 @@
       <c r="AN21" t="n">
         <v>0</v>
       </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -11301,6 +11585,12 @@
       <c r="AN22" t="n">
         <v>0</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -11449,6 +11739,12 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -11597,6 +11893,12 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -11743,6 +12045,12 @@
         <v>0</v>
       </c>
       <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,6 +628,11 @@
           <t>得点圏被安打</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -659,16 +664,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I2" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -706,10 +711,10 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -733,40 +738,43 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>425</v>
+        <v>935</v>
       </c>
       <c r="AB2" t="n">
+        <v>127</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>203</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>72</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL2" t="n">
         <v>48</v>
       </c>
-      <c r="AC2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>116</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>25</v>
+      <c r="AM2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -799,113 +807,116 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>146</v>
+      </c>
+      <c r="H3" t="n">
+        <v>70</v>
+      </c>
+      <c r="I3" t="n">
+        <v>82</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>24</v>
+      </c>
+      <c r="S3" t="n">
+        <v>24</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>216</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>922</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>198</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>74</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
         <v>152</v>
       </c>
-      <c r="H3" t="n">
-        <v>74</v>
-      </c>
-      <c r="I3" t="n">
-        <v>62</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
       <c r="AL3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -939,113 +950,116 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H4" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" t="n">
+        <v>81</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>24</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>216</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>923</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>135</v>
+      </c>
+      <c r="AC4" t="n">
         <v>66</v>
       </c>
-      <c r="J4" t="n">
-        <v>8</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AL4" t="n">
+        <v>33</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,16 +1093,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H5" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I5" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1126,10 +1140,10 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1144,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1153,39 +1167,42 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AL5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1219,113 +1236,116 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="H6" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I6" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>24</v>
+      </c>
+      <c r="S6" t="n">
+        <v>24</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>216</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>968</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>87</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>39</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>219</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>102</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>102</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>8</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="AL6" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1359,10 +1379,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="I7" t="n">
         <v>85</v>
@@ -1406,10 +1426,10 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1424,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1433,39 +1453,42 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="AL7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AM7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1608,6 +1631,9 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1748,6 +1774,9 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1888,6 +1917,9 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2028,6 +2060,9 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2168,6 +2203,9 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2306,6 +2344,9 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2631,61 +2672,61 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W2" t="n">
-        <v>46</v>
+        <v>691</v>
       </c>
       <c r="X2" t="n">
-        <v>44</v>
+        <v>640</v>
       </c>
       <c r="Y2" t="n">
+        <v>161</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>135</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>88</v>
+      </c>
+      <c r="AN2" t="n">
         <v>14</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -2785,40 +2826,40 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W3" t="n">
-        <v>46</v>
+        <v>671</v>
       </c>
       <c r="X3" t="n">
-        <v>46</v>
+        <v>663</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -2836,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="AN3" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -2939,40 +2980,40 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W4" t="n">
-        <v>45</v>
+        <v>655</v>
       </c>
       <c r="X4" t="n">
-        <v>39</v>
+        <v>580</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -2990,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="AN4" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -3093,40 +3134,40 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W5" t="n">
-        <v>45</v>
+        <v>643</v>
       </c>
       <c r="X5" t="n">
-        <v>44</v>
+        <v>584</v>
       </c>
       <c r="Y5" t="n">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -3144,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3247,40 +3288,40 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W6" t="n">
-        <v>44</v>
+        <v>628</v>
       </c>
       <c r="X6" t="n">
-        <v>41</v>
+        <v>549</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="Z6" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="n">
         <v>5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
       <c r="AC6" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3298,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -3401,61 +3442,61 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W7" t="n">
-        <v>40</v>
+        <v>580</v>
       </c>
       <c r="X7" t="n">
+        <v>524</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>168</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>137</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>58</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>69</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>106</v>
+      </c>
+      <c r="AN7" t="n">
         <v>33</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -3555,40 +3596,40 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W8" t="n">
-        <v>41</v>
+        <v>592</v>
       </c>
       <c r="X8" t="n">
-        <v>39</v>
+        <v>577</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="Z8" t="n">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC8" t="n">
         <v>1</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -3606,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -3709,40 +3750,40 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W9" t="n">
-        <v>43</v>
+        <v>612</v>
       </c>
       <c r="X9" t="n">
-        <v>42</v>
+        <v>593</v>
       </c>
       <c r="Y9" t="n">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="n">
+        <v>103</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB9" t="n">
         <v>5</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AC9" t="n">
         <v>1</v>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -3760,10 +3801,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="AN9" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -3863,40 +3904,40 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W10" t="n">
-        <v>37</v>
+        <v>567</v>
       </c>
       <c r="X10" t="n">
-        <v>32</v>
+        <v>524</v>
       </c>
       <c r="Y10" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="AE10" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG10" t="n">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -3914,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
@@ -6247,7 +6288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6446,6 +6487,11 @@
           <t>得点圏被安打</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 38</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6477,114 +6523,117 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H2" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
+        <v>89</v>
+      </c>
+      <c r="J2" t="n">
+        <v>9</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>24</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>216</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>871</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>147</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>181</v>
+      </c>
+      <c r="AG2" t="n">
         <v>37</v>
       </c>
-      <c r="J2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>387</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>38</v>
-      </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6617,16 +6666,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H3" t="n">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="I3" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -6664,10 +6713,10 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -6682,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -6691,39 +6740,42 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>961</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AL3" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6757,13 +6809,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H4" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="I4" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -6804,10 +6856,10 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -6822,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -6831,39 +6883,42 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AL4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6944,10 +6999,10 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -6962,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -6971,39 +7026,42 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AL5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7084,10 +7142,10 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -7102,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -7111,39 +7169,42 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1013</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="AL6" t="n">
+        <v>66</v>
+      </c>
+      <c r="AM6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7224,10 +7285,10 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -7242,7 +7303,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -7251,39 +7312,42 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>923</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="AL7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AM7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7426,6 +7490,9 @@
       <c r="AL8" t="n">
         <v>0</v>
       </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7566,6 +7633,9 @@
       <c r="AL9" t="n">
         <v>0</v>
       </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7706,6 +7776,9 @@
       <c r="AL10" t="n">
         <v>0</v>
       </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7846,6 +7919,9 @@
       <c r="AL11" t="n">
         <v>0</v>
       </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7986,6 +8062,9 @@
       <c r="AL12" t="n">
         <v>0</v>
       </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8124,6 +8203,9 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8449,40 +8531,40 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W2" t="n">
-        <v>52</v>
+        <v>689</v>
       </c>
       <c r="X2" t="n">
-        <v>45</v>
+        <v>635</v>
       </c>
       <c r="Y2" t="n">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="Z2" t="n">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
         <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="AF2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -8500,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="AN2" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -8603,40 +8685,40 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W3" t="n">
-        <v>50</v>
+        <v>670</v>
       </c>
       <c r="X3" t="n">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="Z3" t="n">
+        <v>86</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB3" t="n">
         <v>11</v>
       </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>2</v>
-      </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -8654,10 +8736,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -8757,40 +8839,40 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W4" t="n">
-        <v>48</v>
+        <v>655</v>
       </c>
       <c r="X4" t="n">
-        <v>39</v>
+        <v>577</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="Z4" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -8808,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -8911,40 +8993,40 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W5" t="n">
-        <v>48</v>
+        <v>639</v>
       </c>
       <c r="X5" t="n">
-        <v>43</v>
+        <v>565</v>
       </c>
       <c r="Y5" t="n">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="Z5" t="n">
-        <v>13</v>
+        <v>136</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="AE5" t="n">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -8962,10 +9044,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -9065,40 +9147,40 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W6" t="n">
-        <v>48</v>
+        <v>625</v>
       </c>
       <c r="X6" t="n">
-        <v>44</v>
+        <v>566</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="Z6" t="n">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="AA6" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -9116,10 +9198,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="AN6" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -9219,40 +9301,40 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W7" t="n">
-        <v>43</v>
+        <v>583</v>
       </c>
       <c r="X7" t="n">
-        <v>37</v>
+        <v>523</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="Z7" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>33</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
         <v>5</v>
       </c>
-      <c r="AA7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
       <c r="AG7" t="n">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -9270,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -9373,40 +9455,40 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W8" t="n">
-        <v>46</v>
+        <v>592</v>
       </c>
       <c r="X8" t="n">
-        <v>43</v>
+        <v>521</v>
       </c>
       <c r="Y8" t="n">
+        <v>96</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA8" t="n">
         <v>10</v>
       </c>
-      <c r="Z8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -9424,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -9527,40 +9609,40 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W9" t="n">
-        <v>47</v>
+        <v>607</v>
       </c>
       <c r="X9" t="n">
-        <v>45</v>
+        <v>576</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Z9" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="AA9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="n">
         <v>1</v>
       </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -9578,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="AN9" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -9681,40 +9763,40 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="W10" t="n">
-        <v>43</v>
+        <v>566</v>
       </c>
       <c r="X10" t="n">
-        <v>40</v>
+        <v>516</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="Z10" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -9732,10 +9814,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="AN10" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -717,10 +717,10 @@
         <v>24</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -732,46 +732,46 @@
         <v>216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA2" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="AB2" t="n">
         <v>127</v>
       </c>
       <c r="AC2" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="n">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AK2" t="n">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -860,10 +860,10 @@
         <v>24</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -875,46 +875,46 @@
         <v>216</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="AB3" t="n">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="AC3" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="AG3" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>24</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1018,43 +1018,43 @@
         <v>216</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>923</v>
+        <v>909</v>
       </c>
       <c r="AB4" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AC4" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="AG4" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AH4" t="n">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="AL4" t="n">
         <v>33</v>
@@ -1146,10 +1146,10 @@
         <v>24</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1161,43 +1161,43 @@
         <v>216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA5" t="n">
-        <v>957</v>
+        <v>974</v>
       </c>
       <c r="AB5" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AC5" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="AG5" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AH5" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="n">
         <v>11</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="AL5" t="n">
         <v>46</v>
@@ -1289,10 +1289,10 @@
         <v>24</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1304,46 +1304,46 @@
         <v>216</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="AB6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AC6" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE6" t="n">
         <v>39</v>
       </c>
       <c r="AF6" t="n">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="AG6" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AH6" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK6" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL6" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>23</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1447,46 +1447,46 @@
         <v>207</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>921</v>
+        <v>885</v>
       </c>
       <c r="AB7" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AC7" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>186</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="n">
         <v>14</v>
       </c>
-      <c r="AE7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>211</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>85</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="AL7" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H13" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -2675,37 +2675,37 @@
         <v>143</v>
       </c>
       <c r="W2" t="n">
-        <v>691</v>
+        <v>675</v>
       </c>
       <c r="X2" t="n">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="Y2" t="n">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Z2" t="n">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE2" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>87</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -2829,37 +2829,37 @@
         <v>143</v>
       </c>
       <c r="W3" t="n">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="X3" t="n">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="Y3" t="n">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="Z3" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG3" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -2983,37 +2983,37 @@
         <v>143</v>
       </c>
       <c r="W4" t="n">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="X4" t="n">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="Y4" t="n">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="Z4" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AA4" t="n">
         <v>43</v>
       </c>
       <c r="AB4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AD4" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="AE4" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN4" t="n">
         <v>36</v>
@@ -3137,19 +3137,19 @@
         <v>143</v>
       </c>
       <c r="W5" t="n">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="X5" t="n">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="Y5" t="n">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="Z5" t="n">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>21</v>
       </c>
       <c r="AD5" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE5" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -3185,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="AN5" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3291,37 +3291,37 @@
         <v>143</v>
       </c>
       <c r="W6" t="n">
-        <v>628</v>
+        <v>607</v>
       </c>
       <c r="X6" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AA6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AD6" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AE6" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3339,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="AN6" t="n">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -3445,37 +3445,37 @@
         <v>143</v>
       </c>
       <c r="W7" t="n">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="X7" t="n">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="Y7" t="n">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="Z7" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AN7" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -3599,37 +3599,37 @@
         <v>143</v>
       </c>
       <c r="W8" t="n">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="X8" t="n">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="Y8" t="n">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="Z8" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AN8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -3753,37 +3753,37 @@
         <v>143</v>
       </c>
       <c r="W9" t="n">
-        <v>612</v>
+        <v>594</v>
       </c>
       <c r="X9" t="n">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="Y9" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="Z9" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AA9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC9" t="n">
         <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG9" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="AN9" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -3907,37 +3907,37 @@
         <v>143</v>
       </c>
       <c r="W10" t="n">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="X10" t="n">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="Y10" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AD10" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="AE10" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="AN10" t="n">
         <v>18</v>
@@ -6576,10 +6576,10 @@
         <v>24</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -6591,46 +6591,46 @@
         <v>216</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="AB2" t="n">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="AC2" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
         <v>181</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AH2" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AI2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -6719,10 +6719,10 @@
         <v>24</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -6734,46 +6734,46 @@
         <v>216</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA3" t="n">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="AB3" t="n">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="AC3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AD3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>215</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>77</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>12</v>
       </c>
-      <c r="AE3" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>246</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>72</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>72</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>14</v>
-      </c>
       <c r="AK3" t="n">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="AL3" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -6862,10 +6862,10 @@
         <v>24</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -6877,34 +6877,34 @@
         <v>216</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA4" t="n">
-        <v>933</v>
+        <v>917</v>
       </c>
       <c r="AB4" t="n">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AC4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AH4" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AI4" t="n">
         <v>19</v>
@@ -6913,10 +6913,10 @@
         <v>16</v>
       </c>
       <c r="AK4" t="n">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -7005,10 +7005,10 @@
         <v>24</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -7020,46 +7020,46 @@
         <v>216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="AB5" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="AC5" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AG5" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH5" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -7148,10 +7148,10 @@
         <v>24</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -7163,46 +7163,46 @@
         <v>216</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>1013</v>
+        <v>957</v>
       </c>
       <c r="AB6" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="AC6" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>275</v>
+        <v>228</v>
       </c>
       <c r="AG6" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AH6" t="n">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="AL6" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -7238,16 +7238,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="H7" t="n">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="I7" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -7291,10 +7291,10 @@
         <v>23</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -7306,46 +7306,46 @@
         <v>207</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA7" t="n">
-        <v>923</v>
+        <v>880</v>
       </c>
       <c r="AB7" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AC7" t="n">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AG7" t="n">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="AH7" t="n">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="AL7" t="n">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -8534,19 +8534,19 @@
         <v>143</v>
       </c>
       <c r="W2" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="X2" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="Y2" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Z2" t="n">
         <v>118</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>2</v>
@@ -8558,13 +8558,13 @@
         <v>34</v>
       </c>
       <c r="AE2" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG2" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -8582,10 +8582,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -8688,37 +8688,37 @@
         <v>143</v>
       </c>
       <c r="W3" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="X3" t="n">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="Y3" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Z3" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
         <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -8736,10 +8736,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AN3" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -8842,37 +8842,37 @@
         <v>143</v>
       </c>
       <c r="W4" t="n">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="X4" t="n">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="Y4" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Z4" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="AF4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG4" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -8890,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AN4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -8996,37 +8996,37 @@
         <v>143</v>
       </c>
       <c r="W5" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="X5" t="n">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="Y5" t="n">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Z5" t="n">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="AA5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AD5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AF5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -9044,7 +9044,7 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AN5" t="n">
         <v>36</v>
@@ -9150,37 +9150,37 @@
         <v>143</v>
       </c>
       <c r="W6" t="n">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="X6" t="n">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="Y6" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Z6" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="n">
         <v>3</v>
       </c>
       <c r="AC6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AD6" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -9198,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AN6" t="n">
         <v>41</v>
@@ -9304,37 +9304,37 @@
         <v>143</v>
       </c>
       <c r="W7" t="n">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="X7" t="n">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Y7" t="n">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="Z7" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="n">
         <v>33</v>
       </c>
       <c r="AD7" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -9352,10 +9352,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -9458,37 +9458,37 @@
         <v>143</v>
       </c>
       <c r="W8" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="X8" t="n">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="Y8" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Z8" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AE8" t="n">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -9506,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -9615,34 +9615,34 @@
         <v>607</v>
       </c>
       <c r="X9" t="n">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Y9" t="n">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="Z9" t="n">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AE9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG9" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -9660,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AN9" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -9766,58 +9766,58 @@
         <v>143</v>
       </c>
       <c r="W10" t="n">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="X10" t="n">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Y10" t="n">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="Z10" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>93</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN10" t="n">
         <v>19</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>39</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>96</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>25</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -711,67 +711,67 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>112</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="n">
         <v>11</v>
       </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>216</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="n">
+      <c r="AH2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL2" t="n">
         <v>5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>930</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>213</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>193</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>196</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>31</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -854,16 +854,16 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -872,49 +872,49 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>112</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI3" t="n">
         <v>2</v>
       </c>
-      <c r="AA3" t="n">
-        <v>975</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>202</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>242</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>105</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>105</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>10</v>
-      </c>
       <c r="AJ3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -997,16 +997,16 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1015,49 +1015,49 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>73</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
         <v>3</v>
       </c>
-      <c r="AA4" t="n">
-        <v>955</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>202</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>83</v>
-      </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="AF4" t="n">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="AH4" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>205</v>
+        <v>14</v>
       </c>
       <c r="AL4" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1140,16 +1140,16 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1158,49 +1158,49 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>86</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
         <v>4</v>
       </c>
-      <c r="AA5" t="n">
-        <v>964</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>165</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>69</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>36</v>
-      </c>
       <c r="AF5" t="n">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="AH5" t="n">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1301,49 +1301,49 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1017</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="n">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="AC6" t="n">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>240</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AK6" t="n">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1426,67 +1426,67 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>76</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG7" t="n">
         <v>5</v>
       </c>
-      <c r="U7" t="n">
-        <v>17</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>207</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>2</v>
       </c>
-      <c r="AA7" t="n">
-        <v>919</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>39</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>220</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>94</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>94</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -2672,40 +2672,40 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>675</v>
+        <v>67</v>
       </c>
       <c r="X2" t="n">
-        <v>622</v>
+        <v>58</v>
       </c>
       <c r="Y2" t="n">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AB2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -2826,40 +2826,40 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
-        <v>683</v>
+        <v>68</v>
       </c>
       <c r="X3" t="n">
-        <v>673</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="n">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="n">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1</v>
       </c>
-      <c r="AF3" t="n">
-        <v>9</v>
-      </c>
       <c r="AG3" t="n">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -2980,61 +2980,61 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W4" t="n">
-        <v>644</v>
+        <v>62</v>
       </c>
       <c r="X4" t="n">
-        <v>573</v>
+        <v>51</v>
       </c>
       <c r="Y4" t="n">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="AA4" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
         <v>16</v>
       </c>
-      <c r="AC4" t="n">
-        <v>43</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>133</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>64</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>119</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>137</v>
-      </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -3134,40 +3134,40 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>607</v>
+        <v>60</v>
       </c>
       <c r="X5" t="n">
-        <v>546</v>
+        <v>52</v>
       </c>
       <c r="Y5" t="n">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="n">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="AD5" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -3185,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="AN5" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3288,61 +3288,61 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>625</v>
+        <v>61</v>
       </c>
       <c r="X6" t="n">
-        <v>570</v>
+        <v>57</v>
       </c>
       <c r="Y6" t="n">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="n">
         <v>8</v>
       </c>
-      <c r="AC6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>82</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN6" t="n">
         <v>5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>84</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>40</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -3442,40 +3442,40 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>660</v>
+        <v>64</v>
       </c>
       <c r="X7" t="n">
-        <v>617</v>
+        <v>61</v>
       </c>
       <c r="Y7" t="n">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" t="n">
-        <v>20</v>
-      </c>
       <c r="AD7" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="AN7" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -3596,61 +3596,61 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>590</v>
+        <v>60</v>
       </c>
       <c r="X8" t="n">
-        <v>575</v>
+        <v>58</v>
       </c>
       <c r="Y8" t="n">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AF8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN8" t="n">
         <v>5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>117</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>31</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -3750,41 +3750,41 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W9" t="n">
-        <v>557</v>
+        <v>57</v>
       </c>
       <c r="X9" t="n">
-        <v>534</v>
+        <v>56</v>
       </c>
       <c r="Y9" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="AA9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>112</v>
-      </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
@@ -3801,10 +3801,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -3904,40 +3904,40 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
-        <v>574</v>
+        <v>59</v>
       </c>
       <c r="X10" t="n">
-        <v>559</v>
+        <v>58</v>
       </c>
       <c r="Y10" t="n">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>142</v>
+        <v>18</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
@@ -5497,67 +5497,67 @@
         </is>
       </c>
       <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>112</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
         <v>24</v>
       </c>
-      <c r="S2" t="n">
-        <v>24</v>
-      </c>
-      <c r="T2" t="n">
-        <v>11</v>
-      </c>
-      <c r="U2" t="n">
-        <v>9</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>216</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>890</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>243</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>211</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>146</v>
-      </c>
       <c r="AL2" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -5643,16 +5643,16 @@
         </is>
       </c>
       <c r="R3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -5661,49 +5661,49 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="Y3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>116</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC3" t="n">
         <v>4</v>
       </c>
-      <c r="AA3" t="n">
-        <v>989</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>235</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>61</v>
-      </c>
       <c r="AD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG3" t="n">
         <v>8</v>
       </c>
-      <c r="AE3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>272</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>82</v>
-      </c>
       <c r="AH3" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AK3" t="n">
-        <v>232</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -5789,16 +5789,16 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -5807,49 +5807,49 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>74</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="n">
         <v>5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>941</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>132</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>52</v>
-      </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AF4" t="n">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="AH4" t="n">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -5935,67 +5935,67 @@
         </is>
       </c>
       <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>93</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
         <v>24</v>
       </c>
-      <c r="S5" t="n">
-        <v>24</v>
-      </c>
-      <c r="T5" t="n">
-        <v>13</v>
-      </c>
-      <c r="U5" t="n">
-        <v>8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>216</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>937</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>182</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>220</v>
-      </c>
       <c r="AG5" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="n">
         <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>185</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>37</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -6081,16 +6081,16 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -6099,49 +6099,49 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="n">
         <v>1</v>
       </c>
-      <c r="AA6" t="n">
-        <v>974</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9</v>
-      </c>
       <c r="AE6" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>247</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK6" t="n">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -6227,16 +6227,16 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -6245,49 +6245,49 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>884</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="AG7" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AK7" t="n">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -7494,40 +7494,40 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W2" t="n">
-        <v>608</v>
+        <v>57</v>
       </c>
       <c r="X2" t="n">
-        <v>569</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="n">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="AF2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -7545,10 +7545,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -7648,40 +7648,40 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
-        <v>706</v>
+        <v>68</v>
       </c>
       <c r="X3" t="n">
-        <v>674</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="n">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -7699,10 +7699,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -7802,40 +7802,40 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W4" t="n">
-        <v>690</v>
+        <v>66</v>
       </c>
       <c r="X4" t="n">
-        <v>620</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="n">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
         <v>2</v>
       </c>
-      <c r="AC4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>65</v>
-      </c>
       <c r="AF4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG4" t="n">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7853,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="AN4" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -7956,40 +7956,40 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W5" t="n">
-        <v>656</v>
+        <v>58</v>
       </c>
       <c r="X5" t="n">
-        <v>589</v>
+        <v>51</v>
       </c>
       <c r="Y5" t="n">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="Z5" t="n">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="AD5" t="n">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -8007,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="AN5" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -8110,61 +8110,61 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W6" t="n">
-        <v>673</v>
+        <v>63</v>
       </c>
       <c r="X6" t="n">
-        <v>601</v>
+        <v>57</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="Z6" t="n">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AD6" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
         <v>9</v>
       </c>
-      <c r="AG6" t="n">
-        <v>98</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>112</v>
-      </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -8264,41 +8264,41 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>640</v>
+        <v>57</v>
       </c>
       <c r="X7" t="n">
-        <v>546</v>
+        <v>52</v>
       </c>
       <c r="Y7" t="n">
-        <v>127</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF7" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>78</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>83</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>11</v>
       </c>
-      <c r="AG7" t="n">
-        <v>150</v>
-      </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -8418,40 +8418,40 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W8" t="n">
-        <v>621</v>
+        <v>57</v>
       </c>
       <c r="X8" t="n">
-        <v>550</v>
+        <v>51</v>
       </c>
       <c r="Y8" t="n">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="AA8" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="AD8" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -8469,10 +8469,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -8726,40 +8726,40 @@
         </is>
       </c>
       <c r="V10" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
-        <v>577</v>
+        <v>55</v>
       </c>
       <c r="X10" t="n">
-        <v>515</v>
+        <v>52</v>
       </c>
       <c r="Y10" t="n">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="AF10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
@@ -9342,41 +9342,41 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="W14" t="n">
-        <v>589</v>
+        <v>55</v>
       </c>
       <c r="X14" t="n">
-        <v>544</v>
+        <v>51</v>
       </c>
       <c r="Y14" t="n">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
         <v>11</v>
       </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>39</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>112</v>
-      </c>
       <c r="AH14" t="n">
         <v>0</v>
       </c>
@@ -9393,10 +9393,10 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>佐藤</t>
+          <t>杉内</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -677,29 +677,29 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>A</t>
@@ -711,16 +711,16 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -729,49 +729,49 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>112</v>
+        <v>890</v>
       </c>
       <c r="AB2" t="n">
+        <v>212</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>69</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
         <v>30</v>
       </c>
-      <c r="AC2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>5</v>
-      </c>
       <c r="AF2" t="n">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="AG2" t="n">
+        <v>88</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>88</v>
+      </c>
+      <c r="AI2" t="n">
         <v>11</v>
       </c>
-      <c r="AH2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>2</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鈴木</t>
+          <t>和田</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -810,7 +810,7 @@
         <v>146</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3" t="n">
         <v>82</v>
@@ -854,67 +854,67 @@
         </is>
       </c>
       <c r="R3" t="n">
+        <v>22</v>
+      </c>
+      <c r="S3" t="n">
+        <v>22</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>198</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z3" t="n">
         <v>3</v>
       </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
-        <v>112</v>
+        <v>878</v>
       </c>
       <c r="AB3" t="n">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="AI3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK3" t="n">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="AL3" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>高橋</t>
+          <t>攝津</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -953,111 +953,111 @@
         <v>150</v>
       </c>
       <c r="H4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>81</v>
       </c>
       <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>22</v>
+      </c>
+      <c r="S4" t="n">
+        <v>22</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2</v>
+      </c>
+      <c r="U4" t="n">
+        <v>18</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>198</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>907</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>162</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>107</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>107</v>
+      </c>
+      <c r="AI4" t="n">
         <v>9</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>73</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>2</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK4" t="n">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="AL4" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1070,137 +1070,137 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>モイ</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>左</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>右</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>先</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>155</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49</v>
+      </c>
+      <c r="I5" t="n">
+        <v>60</v>
+      </c>
+      <c r="J5" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>田中</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>左</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>左</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>先</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>148</v>
-      </c>
-      <c r="H5" t="n">
-        <v>68</v>
-      </c>
-      <c r="I5" t="n">
-        <v>66</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>D</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>C</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="T5" t="n">
+        <v>8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>10</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>198</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z5" t="n">
         <v>1</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0</v>
-      </c>
       <c r="AA5" t="n">
-        <v>86</v>
+        <v>889</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>305</v>
       </c>
       <c r="AC5" t="n">
+        <v>97</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6</v>
       </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
       <c r="AE5" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>192</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>93</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>93</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>4</v>
       </c>
-      <c r="AF5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="AL5" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>伊藤</t>
+          <t>大隣</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>右</t>
+          <t>左</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1236,114 +1236,114 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H6" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I6" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J6" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>21</v>
+      </c>
+      <c r="S6" t="n">
+        <v>21</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7</v>
+      </c>
+      <c r="U6" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>189</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>870</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>62</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>229</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AI6" t="n">
         <v>9</v>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AJ6" t="n">
         <v>6</v>
       </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>2</v>
-      </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>渡辺</t>
+          <t>千賀</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>右</t>
+          <t>左</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1379,114 +1379,114 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H7" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
+        <v>80</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>21</v>
+      </c>
+      <c r="S7" t="n">
+        <v>21</v>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>189</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>859</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>226</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>113</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>168</v>
+      </c>
+      <c r="AG7" t="n">
         <v>85</v>
       </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>76</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="AL7" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>山本</t>
+          <t>大津</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>左</t>
+          <t>右</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1522,16 +1522,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H8" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I8" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -2672,40 +2672,40 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W2" t="n">
-        <v>67</v>
+        <v>603</v>
       </c>
       <c r="X2" t="n">
-        <v>58</v>
+        <v>548</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="Z2" t="n">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="AA2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF2" t="n">
         <v>4</v>
       </c>
-      <c r="AE2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -2723,10 +2723,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -2826,40 +2826,40 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W3" t="n">
-        <v>68</v>
+        <v>617</v>
       </c>
       <c r="X3" t="n">
-        <v>67</v>
+        <v>603</v>
       </c>
       <c r="Y3" t="n">
+        <v>157</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>131</v>
+      </c>
+      <c r="AA3" t="n">
         <v>20</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AB3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>17</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AE3" t="n">
         <v>2</v>
       </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -2980,40 +2980,40 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W4" t="n">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="X4" t="n">
+        <v>478</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>120</v>
+      </c>
+      <c r="Z4" t="n">
         <v>51</v>
       </c>
-      <c r="Y4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>89</v>
+      </c>
+      <c r="AF4" t="n">
         <v>8</v>
       </c>
-      <c r="AA4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -3134,40 +3134,40 @@
         </is>
       </c>
       <c r="V5" t="n">
+        <v>130</v>
+      </c>
+      <c r="W5" t="n">
+        <v>552</v>
+      </c>
+      <c r="X5" t="n">
+        <v>507</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>139</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA5" t="n">
         <v>14</v>
       </c>
-      <c r="W5" t="n">
-        <v>60</v>
-      </c>
-      <c r="X5" t="n">
-        <v>52</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>2</v>
-      </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="n">
         <v>4</v>
       </c>
-      <c r="AD5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -3185,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -3288,40 +3288,40 @@
         </is>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W6" t="n">
-        <v>61</v>
+        <v>566</v>
       </c>
       <c r="X6" t="n">
-        <v>57</v>
+        <v>525</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>148</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AD6" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF6" t="n">
         <v>4</v>
       </c>
-      <c r="AE6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1</v>
-      </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -3339,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -3442,40 +3442,40 @@
         </is>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W7" t="n">
-        <v>64</v>
+        <v>588</v>
       </c>
       <c r="X7" t="n">
-        <v>61</v>
+        <v>547</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="Z7" t="n">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AF7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -3596,22 +3596,22 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W8" t="n">
-        <v>60</v>
+        <v>540</v>
       </c>
       <c r="X8" t="n">
-        <v>58</v>
+        <v>520</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>143</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>1</v>
@@ -3620,16 +3620,16 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -3750,40 +3750,40 @@
         </is>
       </c>
       <c r="V9" t="n">
+        <v>130</v>
+      </c>
+      <c r="W9" t="n">
+        <v>503</v>
+      </c>
+      <c r="X9" t="n">
+        <v>485</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>102</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="n">
         <v>14</v>
       </c>
-      <c r="W9" t="n">
-        <v>57</v>
-      </c>
-      <c r="X9" t="n">
-        <v>56</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>2</v>
-      </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -3801,10 +3801,10 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="AN9" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
@@ -3904,40 +3904,40 @@
         </is>
       </c>
       <c r="V10" t="n">
+        <v>130</v>
+      </c>
+      <c r="W10" t="n">
+        <v>523</v>
+      </c>
+      <c r="X10" t="n">
+        <v>503</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
         <v>14</v>
       </c>
-      <c r="W10" t="n">
-        <v>59</v>
-      </c>
-      <c r="X10" t="n">
-        <v>58</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>0</v>
-      </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>遠藤</t>
+          <t>菅野</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -5459,7 +5459,7 @@
         <v>89</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -5497,13 +5497,13 @@
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>1</v>
@@ -5515,49 +5515,49 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>27</v>
+        <v>234</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>112</v>
+        <v>925</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="AC2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
+        <v>206</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI2" t="n">
         <v>26</v>
       </c>
-      <c r="AG2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>3</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AM2" t="n">
         <v>0</v>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>青木</t>
+          <t>内海</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -5643,67 +5643,67 @@
         </is>
       </c>
       <c r="R3" t="n">
+        <v>26</v>
+      </c>
+      <c r="S3" t="n">
+        <v>26</v>
+      </c>
+      <c r="T3" t="n">
+        <v>16</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>234</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z3" t="n">
         <v>3</v>
       </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
       <c r="AA3" t="n">
-        <v>116</v>
+        <v>1006</v>
       </c>
       <c r="AB3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="n">
         <v>25</v>
       </c>
-      <c r="AC3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>3</v>
-      </c>
       <c r="AF3" t="n">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="AL3" t="n">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>坂本</t>
+          <t>内杉</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5789,16 +5789,16 @@
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -5807,49 +5807,49 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="Y4" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>74</v>
+        <v>1021</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="AC4" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>222</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -5869,32 +5869,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>斎藤</t>
+          <t>戸郷</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>右</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>左</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>左</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>先</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H5" t="n">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -5935,16 +5935,16 @@
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -5953,49 +5953,49 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="Y5" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
-        <v>93</v>
+        <v>1040</v>
       </c>
       <c r="AB5" t="n">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>0</v>
@@ -6015,35 +6015,35 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>福田</t>
+          <t>野間</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>右</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>左</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>左</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>先</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H6" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I6" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -6052,19 +6052,19 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>D</t>
@@ -6081,16 +6081,16 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -6099,49 +6099,49 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="Y6" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6" t="n">
-        <v>78</v>
+        <v>1075</v>
       </c>
       <c r="AB6" t="n">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="AC6" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="AF6" t="n">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="AH6" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>268</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>太田</t>
+          <t>高木</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -6176,20 +6176,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>先</t>
+          <t>継</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H7" t="n">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -6213,7 +6213,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -6227,16 +6227,16 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -6245,49 +6245,49 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -7494,40 +7494,40 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W2" t="n">
-        <v>57</v>
+        <v>559</v>
       </c>
       <c r="X2" t="n">
-        <v>55</v>
+        <v>527</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -7545,10 +7545,10 @@
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="AN2" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
@@ -7590,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I3" t="n">
         <v>65</v>
@@ -7648,40 +7648,40 @@
         </is>
       </c>
       <c r="V3" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W3" t="n">
-        <v>68</v>
+        <v>650</v>
       </c>
       <c r="X3" t="n">
-        <v>66</v>
+        <v>619</v>
       </c>
       <c r="Y3" t="n">
+        <v>145</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>106</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB3" t="n">
         <v>10</v>
       </c>
-      <c r="Z3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -7699,10 +7699,10 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -7763,24 +7763,24 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>B</t>
@@ -7802,40 +7802,40 @@
         </is>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W4" t="n">
-        <v>66</v>
+        <v>629</v>
       </c>
       <c r="X4" t="n">
-        <v>63</v>
+        <v>552</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="AE4" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7853,10 +7853,10 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="AO4" t="n">
         <v>0</v>
@@ -7917,14 +7917,14 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>C</t>
@@ -7956,40 +7956,40 @@
         </is>
       </c>
       <c r="V5" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W5" t="n">
-        <v>58</v>
+        <v>602</v>
       </c>
       <c r="X5" t="n">
-        <v>51</v>
+        <v>557</v>
       </c>
       <c r="Y5" t="n">
+        <v>178</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>129</v>
+      </c>
+      <c r="AA5" t="n">
         <v>22</v>
       </c>
-      <c r="Z5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>92</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF5" t="n">
         <v>3</v>
       </c>
-      <c r="AD5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="AH5" t="n">
         <v>0</v>
@@ -8007,10 +8007,10 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>3</v>
+        <v>138</v>
       </c>
       <c r="AN5" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
@@ -8076,29 +8076,29 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="T6" t="inlineStr">
         <is>
           <t>G</t>
@@ -8106,44 +8106,44 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W6" t="n">
-        <v>63</v>
+        <v>615</v>
       </c>
       <c r="X6" t="n">
-        <v>57</v>
+        <v>532</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="n">
         <v>4</v>
       </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>123</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -8161,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AO6" t="n">
         <v>0</v>
@@ -8260,44 +8260,44 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W7" t="n">
-        <v>57</v>
+        <v>586</v>
       </c>
       <c r="X7" t="n">
-        <v>52</v>
+        <v>507</v>
       </c>
       <c r="Y7" t="n">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="Z7" t="n">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="AE7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="n">
         <v>4</v>
       </c>
-      <c r="AF7" t="n">
-        <v>1</v>
-      </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="AO7" t="n">
         <v>0</v>
@@ -8379,79 +8379,79 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W8" t="n">
-        <v>57</v>
+        <v>572</v>
       </c>
       <c r="X8" t="n">
-        <v>51</v>
+        <v>508</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="Z8" t="n">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -8469,10 +8469,10 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AO8" t="n">
         <v>0</v>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V9" t="n">
@@ -8722,44 +8722,44 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>E</t>
         </is>
       </c>
       <c r="V10" t="n">
+        <v>130</v>
+      </c>
+      <c r="W10" t="n">
+        <v>534</v>
+      </c>
+      <c r="X10" t="n">
+        <v>500</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>106</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA10" t="n">
         <v>14</v>
       </c>
-      <c r="W10" t="n">
-        <v>55</v>
-      </c>
-      <c r="X10" t="n">
-        <v>52</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="n">
         <v>10</v>
       </c>
-      <c r="AA10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="AE10" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>162</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
         <v>0</v>
@@ -9342,40 +9342,40 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="W14" t="n">
-        <v>55</v>
+        <v>546</v>
       </c>
       <c r="X14" t="n">
-        <v>51</v>
+        <v>488</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="Z14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA14" t="n">
         <v>12</v>
       </c>
-      <c r="AA14" t="n">
-        <v>4</v>
-      </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="AH14" t="n">
         <v>0</v>
@@ -9393,10 +9393,10 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
